--- a/Data-Burgoin.xlsx
+++ b/Data-Burgoin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="11715" windowHeight="7680" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="11715" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="28-04-13" sheetId="1" r:id="rId1"/>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3428,10 +3428,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC98"/>
+  <dimension ref="A1:AE98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3444,7 +3444,7 @@
     <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="33.75" customHeight="1">
+    <row r="1" spans="1:31" ht="33.75" customHeight="1">
       <c r="A1" s="61" t="s">
         <v>44</v>
       </c>
@@ -3495,8 +3495,8 @@
         <v>10.128265491669591</v>
       </c>
       <c r="U1" s="79">
-        <f>SQRT(SUMSQ(U2:U38)/COUNTA(U2:U38))</f>
-        <v>6.2087784158867363</v>
+        <f>SQRT(SUMSQ(U2:U42)/COUNTA(U2:U42))</f>
+        <v>7.229450832493427</v>
       </c>
       <c r="W1" s="79">
         <f>SQRT(SUMSQ(W2:W42)/COUNTA(W2:W42))</f>
@@ -3504,16 +3504,20 @@
       </c>
       <c r="X1" s="75"/>
       <c r="Y1" s="79">
-        <f>SQRT(SUMSQ(Y2:Y38)/COUNTA(Y2:Y38))</f>
-        <v>6.8671874384040876</v>
+        <f>SQRT(SUMSQ(Y2:Y42)/COUNTA(Y2:Y42))</f>
+        <v>50.104172608612217</v>
       </c>
       <c r="Z1" s="75"/>
       <c r="AA1" s="79">
-        <f>SQRT(SUMSQ(AA2:AA38)/COUNTA(AA2:AA38))</f>
-        <v>6.2901211971368207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+        <f>SQRT(SUMSQ(AA2:AA42)/COUNTA(AA2:AA42))</f>
+        <v>24.378783529915079</v>
+      </c>
+      <c r="AC1" s="79">
+        <f>SQRT(SUMSQ(AC2:AC42)/COUNTA(AC2:AC42))</f>
+        <v>7.6542598544637341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="13">
         <v>7.1</v>
       </c>
@@ -3607,12 +3611,20 @@
         <f>(T2+X2)/2</f>
         <v>72.255048263471991</v>
       </c>
-      <c r="AA2" s="60">
+      <c r="AA2" s="80">
         <f>K2-Z2</f>
         <v>-9.2550482634719913</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AB2">
+        <f>(R2+T2)/2</f>
+        <v>74.608459073199981</v>
+      </c>
+      <c r="AC2" s="80">
+        <f>K2-AB2</f>
+        <v>-11.608459073199981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="13">
         <v>7.1</v>
       </c>
@@ -3706,12 +3718,20 @@
         <f t="shared" ref="Z3:Z42" si="14">(T3+X3)/2</f>
         <v>75.884402699345998</v>
       </c>
-      <c r="AA3" s="60">
+      <c r="AA3" s="80">
         <f t="shared" ref="AA3:AA42" si="15">K3-Z3</f>
         <v>2.1155973006540023</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB42" si="16">(R3+T3)/2</f>
+        <v>74.668429819449997</v>
+      </c>
+      <c r="AC3" s="80">
+        <f t="shared" ref="AC3:AC42" si="17">K3-AB3</f>
+        <v>3.3315701805500026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="13">
         <v>7.1</v>
       </c>
@@ -3805,15 +3825,23 @@
         <f t="shared" si="14"/>
         <v>71.844626235519996</v>
       </c>
-      <c r="AA4" s="60">
+      <c r="AA4" s="80">
         <f t="shared" si="15"/>
         <v>1.1553737644800037</v>
       </c>
-      <c r="AC4">
+      <c r="AB4">
+        <f t="shared" si="16"/>
+        <v>74.473846908799999</v>
+      </c>
+      <c r="AC4" s="80">
+        <f t="shared" si="17"/>
+        <v>-1.4738469087999988</v>
+      </c>
+      <c r="AE4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:31">
       <c r="A5" s="13">
         <v>7.1</v>
       </c>
@@ -3907,12 +3935,20 @@
         <f t="shared" si="14"/>
         <v>71.793883829999999</v>
       </c>
-      <c r="AA5" s="60">
+      <c r="AA5" s="80">
         <f t="shared" si="15"/>
         <v>-8.7938838299999986</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AB5">
+        <f t="shared" si="16"/>
+        <v>74.503096949999986</v>
+      </c>
+      <c r="AC5" s="80">
+        <f t="shared" si="17"/>
+        <v>-11.503096949999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="13">
         <v>7.1</v>
       </c>
@@ -4006,12 +4042,20 @@
         <f t="shared" si="14"/>
         <v>72.821521913631997</v>
       </c>
-      <c r="AA6" s="60">
+      <c r="AA6" s="80">
         <f t="shared" si="15"/>
         <v>-9.8215219136319973</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.75" thickBot="1">
+      <c r="AB6">
+        <f t="shared" si="16"/>
+        <v>74.716648571600004</v>
+      </c>
+      <c r="AC6" s="80">
+        <f t="shared" si="17"/>
+        <v>-11.716648571600004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15.75" thickBot="1">
       <c r="A7" s="5">
         <v>7.1</v>
       </c>
@@ -4105,12 +4149,20 @@
         <f t="shared" si="14"/>
         <v>73.536540599301986</v>
       </c>
-      <c r="AA7" s="60">
+      <c r="AA7" s="80">
         <f t="shared" si="15"/>
         <v>-10.536540599301986</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AB7">
+        <f t="shared" si="16"/>
+        <v>74.852619873849989</v>
+      </c>
+      <c r="AC7" s="80">
+        <f t="shared" si="17"/>
+        <v>-11.852619873849989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="13">
         <v>7.1</v>
       </c>
@@ -4204,12 +4256,20 @@
         <f t="shared" si="14"/>
         <v>73.439826530999994</v>
       </c>
-      <c r="AA8" s="60">
+      <c r="AA8" s="80">
         <f t="shared" si="15"/>
         <v>-10.439826530999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AB8">
+        <f t="shared" si="16"/>
+        <v>74.823523499999993</v>
+      </c>
+      <c r="AC8" s="80">
+        <f t="shared" si="17"/>
+        <v>-11.823523499999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="13">
         <v>7.1</v>
       </c>
@@ -4303,15 +4363,23 @@
         <f t="shared" si="14"/>
         <v>74.272690804752003</v>
       </c>
-      <c r="AA9" s="60">
+      <c r="AA9" s="80">
         <f t="shared" si="15"/>
         <v>-11.272690804752003</v>
       </c>
-      <c r="AC9">
+      <c r="AB9">
+        <f t="shared" si="16"/>
+        <v>74.9414637868</v>
+      </c>
+      <c r="AC9" s="80">
+        <f t="shared" si="17"/>
+        <v>-11.9414637868</v>
+      </c>
+      <c r="AE9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:31">
       <c r="A10" s="13">
         <v>7.1</v>
       </c>
@@ -4405,12 +4473,20 @@
         <f t="shared" si="14"/>
         <v>75.526267400440005</v>
       </c>
-      <c r="AA10" s="60">
+      <c r="AA10" s="80">
         <f t="shared" si="15"/>
         <v>-12.526267400440005</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AB10">
+        <f t="shared" si="16"/>
+        <v>75.089475551199996</v>
+      </c>
+      <c r="AC10" s="80">
+        <f t="shared" si="17"/>
+        <v>-12.089475551199996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="13">
         <v>7.1</v>
       </c>
@@ -4504,12 +4580,20 @@
         <f t="shared" si="14"/>
         <v>77.497343365359981</v>
       </c>
-      <c r="AA11" s="60">
+      <c r="AA11" s="80">
         <f t="shared" si="15"/>
         <v>-14.497343365359981</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AB11">
+        <f t="shared" si="16"/>
+        <v>75.29446699479999</v>
+      </c>
+      <c r="AC11" s="80">
+        <f t="shared" si="17"/>
+        <v>-12.29446699479999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="13">
         <v>7.2</v>
       </c>
@@ -4603,12 +4687,20 @@
         <f t="shared" si="14"/>
         <v>73.326138360735996</v>
       </c>
-      <c r="AA12" s="60">
+      <c r="AA12" s="80">
         <f t="shared" si="15"/>
         <v>-1.326138360735996</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AB12">
+        <f t="shared" si="16"/>
+        <v>74.816397626799983</v>
+      </c>
+      <c r="AC12" s="80">
+        <f t="shared" si="17"/>
+        <v>-2.8163976267999828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="13">
         <v>7.2</v>
       </c>
@@ -4702,12 +4794,20 @@
         <f t="shared" si="14"/>
         <v>74.067642515637999</v>
       </c>
-      <c r="AA13" s="60">
+      <c r="AA13" s="80">
         <f t="shared" si="15"/>
         <v>3.9323574843620008</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AB13">
+        <f t="shared" si="16"/>
+        <v>74.938612948149995</v>
+      </c>
+      <c r="AC13" s="80">
+        <f t="shared" si="17"/>
+        <v>3.061387051850005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="13">
         <v>7.2</v>
       </c>
@@ -4801,12 +4901,20 @@
         <f t="shared" si="14"/>
         <v>73.536540599301986</v>
       </c>
-      <c r="AA14" s="60">
+      <c r="AA14" s="80">
         <f t="shared" si="15"/>
         <v>4.4634594006980137</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AB14">
+        <f t="shared" si="16"/>
+        <v>74.852619873849989</v>
+      </c>
+      <c r="AC14" s="80">
+        <f t="shared" si="17"/>
+        <v>3.1473801261500114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="13">
         <v>7.2</v>
       </c>
@@ -4900,12 +5008,20 @@
         <f t="shared" si="14"/>
         <v>74.391014792223999</v>
       </c>
-      <c r="AA15" s="60">
+      <c r="AA15" s="80">
         <f t="shared" si="15"/>
         <v>3.6089852077760014</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AB15">
+        <f t="shared" si="16"/>
+        <v>74.988385661199999</v>
+      </c>
+      <c r="AC15" s="80">
+        <f t="shared" si="17"/>
+        <v>3.0116143388000012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="13">
         <v>7.2</v>
       </c>
@@ -4999,12 +5115,20 @@
         <f t="shared" si="14"/>
         <v>74.067642515637999</v>
       </c>
-      <c r="AA16" s="60">
+      <c r="AA16" s="80">
         <f t="shared" si="15"/>
         <v>3.9323574843620008</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AB16">
+        <f t="shared" si="16"/>
+        <v>74.938612948149995</v>
+      </c>
+      <c r="AC16" s="80">
+        <f t="shared" si="17"/>
+        <v>3.061387051850005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="13">
         <v>7.2</v>
       </c>
@@ -5098,12 +5222,20 @@
         <f t="shared" si="14"/>
         <v>74.067642515637999</v>
       </c>
-      <c r="AA17" s="60">
+      <c r="AA17" s="80">
         <f t="shared" si="15"/>
         <v>3.9323574843620008</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AB17">
+        <f t="shared" si="16"/>
+        <v>74.938612948149995</v>
+      </c>
+      <c r="AC17" s="80">
+        <f t="shared" si="17"/>
+        <v>3.061387051850005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="13">
         <v>7.2</v>
       </c>
@@ -5197,12 +5329,20 @@
         <f t="shared" si="14"/>
         <v>73.783265056000005</v>
       </c>
-      <c r="AA18" s="60">
+      <c r="AA18" s="80">
         <f t="shared" si="15"/>
         <v>4.2167349439999953</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="15.75" thickBot="1">
+      <c r="AB18">
+        <f t="shared" si="16"/>
+        <v>74.893358000000006</v>
+      </c>
+      <c r="AC18" s="80">
+        <f t="shared" si="17"/>
+        <v>3.1066419999999937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="15.75" thickBot="1">
       <c r="A19" s="5">
         <v>7.2</v>
       </c>
@@ -5296,12 +5436,20 @@
         <f t="shared" si="14"/>
         <v>72.899722543750002</v>
       </c>
-      <c r="AA19" s="60">
+      <c r="AA19" s="80">
         <f t="shared" si="15"/>
         <v>5.100277456249998</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AB19">
+        <f t="shared" si="16"/>
+        <v>74.734816731249992</v>
+      </c>
+      <c r="AC19" s="80">
+        <f t="shared" si="17"/>
+        <v>3.2651832687500075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="13">
         <v>7.2</v>
       </c>
@@ -5395,12 +5543,20 @@
         <f t="shared" si="14"/>
         <v>75.024583952368005</v>
       </c>
-      <c r="AA20" s="60">
+      <c r="AA20" s="80">
         <f t="shared" si="15"/>
         <v>2.9754160476319953</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AB20">
+        <f t="shared" si="16"/>
+        <v>75.028942221199998</v>
+      </c>
+      <c r="AC20" s="80">
+        <f t="shared" si="17"/>
+        <v>2.9710577788000023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="13">
         <v>7.2</v>
       </c>
@@ -5494,12 +5650,20 @@
         <f t="shared" si="14"/>
         <v>74.785375345115995</v>
       </c>
-      <c r="AA21" s="60">
+      <c r="AA21" s="80">
         <f t="shared" si="15"/>
         <v>3.2146246548840054</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AB21">
+        <f t="shared" si="16"/>
+        <v>75.00020168815</v>
+      </c>
+      <c r="AC21" s="80">
+        <f t="shared" si="17"/>
+        <v>2.9997983118500002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="13">
         <v>7.2</v>
       </c>
@@ -5593,12 +5757,20 @@
         <f t="shared" si="14"/>
         <v>77.497343365359981</v>
       </c>
-      <c r="AA22" s="60">
+      <c r="AA22" s="80">
         <f t="shared" si="15"/>
         <v>0.50265663464001875</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AB22">
+        <f t="shared" si="16"/>
+        <v>75.29446699479999</v>
+      </c>
+      <c r="AC22" s="80">
+        <f t="shared" si="17"/>
+        <v>2.7055330052000102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="13">
         <v>7.2</v>
       </c>
@@ -5692,12 +5864,20 @@
         <f t="shared" si="14"/>
         <v>78.479613895</v>
       </c>
-      <c r="AA23" s="60">
+      <c r="AA23" s="80">
         <f t="shared" si="15"/>
         <v>-0.47961389499999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AB23">
+        <f t="shared" si="16"/>
+        <v>75.399744099999992</v>
+      </c>
+      <c r="AC23" s="80">
+        <f t="shared" si="17"/>
+        <v>2.6002559000000076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="13">
         <v>7</v>
       </c>
@@ -5791,15 +5971,23 @@
         <f t="shared" si="14"/>
         <v>252.72699999921315</v>
       </c>
-      <c r="AA24" s="60">
+      <c r="AA24" s="80">
         <f t="shared" si="15"/>
         <v>-0.72699999921314884</v>
       </c>
-      <c r="AC24" s="71">
+      <c r="AB24">
+        <f t="shared" si="16"/>
+        <v>252.7632499999954</v>
+      </c>
+      <c r="AC24" s="80">
+        <f t="shared" si="17"/>
+        <v>-0.763249999995395</v>
+      </c>
+      <c r="AE24" s="71">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:31">
       <c r="A25" s="13">
         <v>7</v>
       </c>
@@ -5893,12 +6081,20 @@
         <f t="shared" si="14"/>
         <v>196.45583694996867</v>
       </c>
-      <c r="AA25" s="60">
+      <c r="AA25" s="80">
         <f t="shared" si="15"/>
         <v>7.5441630500313295</v>
       </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AB25">
+        <f t="shared" si="16"/>
+        <v>193.98614004999956</v>
+      </c>
+      <c r="AC25" s="80">
+        <f t="shared" si="17"/>
+        <v>10.013859950000437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="13">
         <v>6.9</v>
       </c>
@@ -5992,12 +6188,20 @@
         <f t="shared" si="14"/>
         <v>123.48622499999891</v>
       </c>
-      <c r="AA26" s="60">
+      <c r="AA26" s="80">
         <f t="shared" si="15"/>
         <v>2.5137750000010897</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AB26">
+        <f t="shared" si="16"/>
+        <v>112.54388125000007</v>
+      </c>
+      <c r="AC26" s="80">
+        <f t="shared" si="17"/>
+        <v>13.456118749999931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="13">
         <v>7</v>
       </c>
@@ -6091,12 +6295,20 @@
         <f t="shared" si="14"/>
         <v>100.4273579099999</v>
       </c>
-      <c r="AA27" s="60">
+      <c r="AA27" s="80">
         <f t="shared" si="15"/>
         <v>-0.42735790999989831</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" ht="15.75" thickBot="1">
+      <c r="AB27">
+        <f t="shared" si="16"/>
+        <v>90.532733350000015</v>
+      </c>
+      <c r="AC27" s="80">
+        <f t="shared" si="17"/>
+        <v>9.4672666499999849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="15.75" thickBot="1">
       <c r="A28" s="5">
         <v>7</v>
       </c>
@@ -6190,12 +6402,20 @@
         <f t="shared" si="14"/>
         <v>81.953432499999991</v>
       </c>
-      <c r="AA28" s="60">
+      <c r="AA28" s="80">
         <f t="shared" si="15"/>
         <v>2.046567500000009</v>
       </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AB28">
+        <f t="shared" si="16"/>
+        <v>77.906206249999997</v>
+      </c>
+      <c r="AC28" s="80">
+        <f t="shared" si="17"/>
+        <v>6.0937937500000032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="13">
         <v>7.1</v>
       </c>
@@ -6289,13 +6509,21 @@
         <f t="shared" si="14"/>
         <v>116.96006999999824</v>
       </c>
-      <c r="AA29" s="60">
+      <c r="AA29" s="80">
         <f t="shared" si="15"/>
         <v>-6.9600699999982396</v>
       </c>
-      <c r="AC29" s="60"/>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AB29">
+        <f t="shared" si="16"/>
+        <v>124.10105000000001</v>
+      </c>
+      <c r="AC29" s="80">
+        <f t="shared" si="17"/>
+        <v>-14.101050000000015</v>
+      </c>
+      <c r="AE29" s="60"/>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="13">
         <v>7.1</v>
       </c>
@@ -6389,15 +6617,23 @@
         <f t="shared" si="14"/>
         <v>85.627567974399568</v>
       </c>
-      <c r="AA30" s="60">
+      <c r="AA30" s="80">
         <f t="shared" si="15"/>
         <v>-1.6275679743995681</v>
       </c>
-      <c r="AC30" s="71">
+      <c r="AB30">
+        <f t="shared" si="16"/>
+        <v>93.24123249279998</v>
+      </c>
+      <c r="AC30" s="80">
+        <f t="shared" si="17"/>
+        <v>-9.2412324927999805</v>
+      </c>
+      <c r="AE30" s="71">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:31">
       <c r="A31" s="13">
         <v>7.1</v>
       </c>
@@ -6491,13 +6727,21 @@
         <f t="shared" si="14"/>
         <v>84.453676041215985</v>
       </c>
-      <c r="AA31" s="60">
+      <c r="AA31" s="80">
         <f t="shared" si="15"/>
         <v>-0.45367604121598504</v>
       </c>
-      <c r="AC31" s="60"/>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AB31">
+        <f t="shared" si="16"/>
+        <v>81.803720717199994</v>
+      </c>
+      <c r="AC31" s="80">
+        <f t="shared" si="17"/>
+        <v>2.1962792828000062</v>
+      </c>
+      <c r="AE31" s="60"/>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="13">
         <v>7.1</v>
       </c>
@@ -6591,13 +6835,21 @@
         <f t="shared" si="14"/>
         <v>76.87522872837998</v>
       </c>
-      <c r="AA32" s="60">
+      <c r="AA32" s="80">
         <f t="shared" si="15"/>
         <v>3.1247712716200198</v>
       </c>
-      <c r="AC32" s="60"/>
-    </row>
-    <row r="33" spans="1:29" ht="15.75" thickBot="1">
+      <c r="AB32">
+        <f t="shared" si="16"/>
+        <v>75.238028879449985</v>
+      </c>
+      <c r="AC32" s="80">
+        <f t="shared" si="17"/>
+        <v>4.7619711205500153</v>
+      </c>
+      <c r="AE32" s="60"/>
+    </row>
+    <row r="33" spans="1:31" ht="15.75" thickBot="1">
       <c r="A33" s="5">
         <v>7.1</v>
       </c>
@@ -6691,13 +6943,21 @@
         <f t="shared" si="14"/>
         <v>72.820122093615993</v>
       </c>
-      <c r="AA33" s="60">
+      <c r="AA33" s="80">
         <f t="shared" si="15"/>
         <v>7.1798779063840072</v>
       </c>
-      <c r="AC33" s="60"/>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AB33">
+        <f t="shared" si="16"/>
+        <v>74.611690679599988</v>
+      </c>
+      <c r="AC33" s="80">
+        <f t="shared" si="17"/>
+        <v>5.3883093204000119</v>
+      </c>
+      <c r="AE33" s="60"/>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" s="66">
         <v>7.1</v>
       </c>
@@ -6791,13 +7051,21 @@
         <f t="shared" si="14"/>
         <v>72.24596949699999</v>
       </c>
-      <c r="AA34" s="60">
+      <c r="AA34" s="80">
         <f t="shared" si="15"/>
         <v>7.7540305030000098</v>
       </c>
-      <c r="AC34" s="60"/>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AB34">
+        <f t="shared" si="16"/>
+        <v>74.582420599999992</v>
+      </c>
+      <c r="AC34" s="80">
+        <f t="shared" si="17"/>
+        <v>5.4175794000000081</v>
+      </c>
+      <c r="AE34" s="60"/>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="13">
         <v>7.1</v>
       </c>
@@ -6891,13 +7159,21 @@
         <f t="shared" si="14"/>
         <v>72.236543039228991</v>
       </c>
-      <c r="AA35" s="60">
+      <c r="AA35" s="80">
         <f t="shared" si="15"/>
         <v>7.7634569607710091</v>
       </c>
-      <c r="AC35" s="60"/>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AB35">
+        <f t="shared" si="16"/>
+        <v>74.593201538649993</v>
+      </c>
+      <c r="AC35" s="80">
+        <f t="shared" si="17"/>
+        <v>5.4067984613500073</v>
+      </c>
+      <c r="AE35" s="60"/>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="13">
         <v>7.1</v>
       </c>
@@ -6991,15 +7267,23 @@
         <f t="shared" si="14"/>
         <v>75.160166198271995</v>
       </c>
-      <c r="AA36" s="60">
+      <c r="AA36" s="80">
         <f t="shared" si="15"/>
         <v>4.8398338017280054</v>
       </c>
-      <c r="AC36" s="71">
+      <c r="AB36">
+        <f t="shared" si="16"/>
+        <v>75.101488153599988</v>
+      </c>
+      <c r="AC36" s="80">
+        <f t="shared" si="17"/>
+        <v>4.8985118464000124</v>
+      </c>
+      <c r="AE36" s="71">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:31">
       <c r="A37" s="13">
         <v>7.1</v>
       </c>
@@ -7093,12 +7377,20 @@
         <f t="shared" si="14"/>
         <v>76.164110615032001</v>
       </c>
-      <c r="AA37" s="60">
+      <c r="AA37" s="80">
         <f t="shared" si="15"/>
         <v>-2.1641106150320013</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" ht="15.75" thickBot="1">
+      <c r="AB37">
+        <f t="shared" si="16"/>
+        <v>75.198221890399992</v>
+      </c>
+      <c r="AC37" s="80">
+        <f t="shared" si="17"/>
+        <v>-1.1982218903999922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15.75" thickBot="1">
       <c r="A38" s="5">
         <v>7.1</v>
       </c>
@@ -7192,12 +7484,20 @@
         <f t="shared" si="14"/>
         <v>77.270462428672005</v>
       </c>
-      <c r="AA38" s="60">
+      <c r="AA38" s="80">
         <f t="shared" si="15"/>
         <v>-3.2704624286720048</v>
       </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AB38">
+        <f t="shared" si="16"/>
+        <v>75.297644364799993</v>
+      </c>
+      <c r="AC38" s="80">
+        <f t="shared" si="17"/>
+        <v>-1.2976443647999929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="13">
         <v>7.2</v>
       </c>
@@ -7291,12 +7591,20 @@
         <f t="shared" si="14"/>
         <v>87.11175239437496</v>
       </c>
-      <c r="AA39" s="60">
+      <c r="AA39" s="80">
         <f t="shared" si="15"/>
         <v>-16.11175239437496</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AB39">
+        <f t="shared" si="16"/>
+        <v>77.130009006249992</v>
+      </c>
+      <c r="AC39" s="80">
+        <f t="shared" si="17"/>
+        <v>-6.1300090062499919</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="13">
         <v>7.2</v>
       </c>
@@ -7390,15 +7698,23 @@
         <f t="shared" si="14"/>
         <v>-40.171954999999919</v>
       </c>
-      <c r="AA40" s="60">
+      <c r="AA40" s="80">
         <f t="shared" si="15"/>
         <v>150.17195499999991</v>
       </c>
-      <c r="AC40" s="71">
+      <c r="AB40">
+        <f t="shared" si="16"/>
+        <v>110.27325078125003</v>
+      </c>
+      <c r="AC40" s="80">
+        <f t="shared" si="17"/>
+        <v>-0.27325078125002733</v>
+      </c>
+      <c r="AE40" s="71">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:31">
       <c r="A41" s="13">
         <v>7.2</v>
       </c>
@@ -7492,12 +7808,20 @@
         <f t="shared" si="14"/>
         <v>98.288808971874971</v>
       </c>
-      <c r="AA41" s="60">
+      <c r="AA41" s="80">
         <f t="shared" si="15"/>
         <v>-8.2888089718749711</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" ht="15.75" thickBot="1">
+      <c r="AB41">
+        <f t="shared" si="16"/>
+        <v>74.231789768749991</v>
+      </c>
+      <c r="AC41" s="80">
+        <f t="shared" si="17"/>
+        <v>15.768210231250009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="15.75" thickBot="1">
       <c r="A42" s="5">
         <v>7.2</v>
       </c>
@@ -7591,22 +7915,34 @@
         <f t="shared" si="14"/>
         <v>84.846797031250006</v>
       </c>
-      <c r="AA42" s="60">
+      <c r="AA42" s="80">
         <f t="shared" si="15"/>
         <v>-4.8467970312500057</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AB42">
+        <f t="shared" si="16"/>
+        <v>74.034852343750003</v>
+      </c>
+      <c r="AC42" s="80">
+        <f t="shared" si="17"/>
+        <v>5.9651476562499965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="C44">
+        <f>MIN(C2:C42)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:31">
       <c r="V47">
         <f>(7.2-6.9)/2</f>
         <v>0.14999999999999991</v>
@@ -7624,7 +7960,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.75">
+    <row r="48" spans="1:31" ht="15.75">
       <c r="A48" s="61" t="s">
         <v>44</v>
       </c>
@@ -7712,19 +8048,19 @@
       </c>
       <c r="R49" s="80"/>
       <c r="V49">
-        <f t="shared" ref="V49:V75" si="16">(A49-$V$48)/$V$47</f>
+        <f t="shared" ref="V49:V75" si="18">(A49-$V$48)/$V$47</f>
         <v>0.56790123456790942</v>
       </c>
       <c r="W49">
-        <f t="shared" ref="W49:W75" si="17">(C49-$W$48)/$W$47</f>
+        <f t="shared" ref="W49:W75" si="19">(C49-$W$48)/$W$47</f>
         <v>-0.17166293810589112</v>
       </c>
       <c r="X49">
-        <f t="shared" ref="X49:X75" si="18">(E49-$X$48)/$X$47</f>
+        <f t="shared" ref="X49:X75" si="20">(E49-$X$48)/$X$47</f>
         <v>-0.14120370370370372</v>
       </c>
       <c r="Y49">
-        <f t="shared" ref="Y49:Y75" si="19">(K49-$Y$48)/$Y$47</f>
+        <f t="shared" ref="Y49:Y75" si="21">(K49-$Y$48)/$Y$47</f>
         <v>-0.13639035861258081</v>
       </c>
     </row>
@@ -7764,19 +8100,19 @@
       </c>
       <c r="R50" s="80"/>
       <c r="V50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56790123456790942</v>
       </c>
       <c r="W50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.16897837434750185</v>
       </c>
       <c r="X50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.14120370370370372</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.13639035861258081</v>
       </c>
     </row>
@@ -7816,19 +8152,19 @@
       </c>
       <c r="R51" s="80"/>
       <c r="V51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56790123456790942</v>
       </c>
       <c r="W51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.16092468307233407</v>
       </c>
       <c r="X51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13450727513227514</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.13639035861258081</v>
       </c>
     </row>
@@ -7868,19 +8204,19 @@
       </c>
       <c r="R52" s="80"/>
       <c r="V52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56790123456790942</v>
       </c>
       <c r="W52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.16092468307233407</v>
       </c>
       <c r="X52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13897156084656084</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.13639035861258081</v>
       </c>
     </row>
@@ -7920,19 +8256,19 @@
       </c>
       <c r="R53" s="80"/>
       <c r="V53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56790123456790942</v>
       </c>
       <c r="W53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.15958240119313943</v>
       </c>
       <c r="X53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13450727513227514</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.13639035861258081</v>
       </c>
     </row>
@@ -7972,19 +8308,19 @@
       </c>
       <c r="R54" s="80"/>
       <c r="V54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56790123456790942</v>
       </c>
       <c r="W54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.15958240119313943</v>
       </c>
       <c r="X54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13897156084656084</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.13639035861258081</v>
       </c>
     </row>
@@ -8024,19 +8360,19 @@
       </c>
       <c r="R55" s="80"/>
       <c r="V55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56790123456790942</v>
       </c>
       <c r="W55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.1582401193139448</v>
       </c>
       <c r="X55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13450727513227514</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.13639035861258081</v>
       </c>
     </row>
@@ -8076,19 +8412,19 @@
       </c>
       <c r="R56" s="80"/>
       <c r="V56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.15689783743475019</v>
       </c>
       <c r="X56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13450727513227514</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.29512051734273953</v>
       </c>
     </row>
@@ -8128,19 +8464,19 @@
       </c>
       <c r="R57" s="80"/>
       <c r="V57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56790123456790942</v>
       </c>
       <c r="W57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.15689783743475019</v>
       </c>
       <c r="X57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13450727513227514</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.13639035861258081</v>
       </c>
     </row>
@@ -8180,19 +8516,19 @@
       </c>
       <c r="R58" s="80"/>
       <c r="V58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56790123456790942</v>
       </c>
       <c r="W58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.15555555555555556</v>
       </c>
       <c r="X58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13450727513227514</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.1998824221046443</v>
       </c>
     </row>
@@ -8232,19 +8568,19 @@
       </c>
       <c r="R59" s="80"/>
       <c r="V59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.56790123456790942</v>
       </c>
       <c r="W59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.15152870991797165</v>
       </c>
       <c r="X59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13450727513227514</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.13639035861258081</v>
       </c>
     </row>
@@ -8284,19 +8620,19 @@
       </c>
       <c r="R60" s="80"/>
       <c r="V60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.15018642803877702</v>
       </c>
       <c r="X60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13450727513227514</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.29512051734273953</v>
       </c>
     </row>
@@ -8336,19 +8672,19 @@
       </c>
       <c r="R61" s="80"/>
       <c r="V61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.14750186428038778</v>
       </c>
       <c r="X61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13227513227513227</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.29512051734273953</v>
       </c>
     </row>
@@ -8388,19 +8724,19 @@
       </c>
       <c r="R62" s="80"/>
       <c r="V62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.14481730052199851</v>
       </c>
       <c r="X62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13004298941798942</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.29512051734273953</v>
       </c>
     </row>
@@ -8440,19 +8776,19 @@
       </c>
       <c r="R63" s="80"/>
       <c r="V63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.14481730052199851</v>
       </c>
       <c r="X63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.14120370370370372</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.18930041152263372</v>
       </c>
     </row>
@@ -8492,19 +8828,19 @@
       </c>
       <c r="R64" s="80"/>
       <c r="V64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.14213273676360924</v>
       </c>
       <c r="X64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13004298941798942</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.18930041152263372</v>
       </c>
     </row>
@@ -8544,19 +8880,19 @@
       </c>
       <c r="R65" s="80"/>
       <c r="V65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.13676360924683073</v>
       </c>
       <c r="X65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13227513227513227</v>
       </c>
       <c r="Y65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.11522633744855963</v>
       </c>
     </row>
@@ -8596,19 +8932,19 @@
       </c>
       <c r="R66" s="80"/>
       <c r="V66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.76543209876542584</v>
       </c>
       <c r="W66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.11797166293810589</v>
       </c>
       <c r="X66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-6.3078703703703706E-2</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-7.2898295120517306E-2</v>
       </c>
     </row>
@@ -8648,19 +8984,19 @@
       </c>
       <c r="R67" s="80"/>
       <c r="V67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.113944817300522</v>
       </c>
       <c r="X67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.12557870370370372</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.13639035861258081</v>
       </c>
     </row>
@@ -8700,19 +9036,19 @@
       </c>
       <c r="R68" s="80"/>
       <c r="V68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.113944817300522</v>
       </c>
       <c r="X68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.13004298941798942</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-0.11522633744855963</v>
       </c>
     </row>
@@ -8752,19 +9088,19 @@
       </c>
       <c r="R69" s="80"/>
       <c r="V69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-5.3542132736763608E-2</v>
       </c>
       <c r="X69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.12557870370370372</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-7.2898295120517306E-2</v>
       </c>
     </row>
@@ -8804,19 +9140,19 @@
       </c>
       <c r="R70" s="80"/>
       <c r="V70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.76543209876542584</v>
       </c>
       <c r="W70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3.7434750186428035E-2</v>
       </c>
       <c r="X70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.852843915343915E-2</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.6413874191651996E-2</v>
       </c>
     </row>
@@ -8856,19 +9192,19 @@
       </c>
       <c r="R71" s="80"/>
       <c r="V71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.4320987654320905</v>
       </c>
       <c r="W71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.1504847129008203</v>
       </c>
       <c r="X71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.24942129629629628</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.37154614932392716</v>
       </c>
     </row>
@@ -8908,19 +9244,19 @@
       </c>
       <c r="R72" s="80"/>
       <c r="V72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.15316927665920954</v>
       </c>
       <c r="X72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-4.0757275132275138E-2</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-7.2898295120517306E-2</v>
       </c>
     </row>
@@ -8960,19 +9296,19 @@
       </c>
       <c r="R73" s="80"/>
       <c r="V73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-9.8765432098761194E-2</v>
       </c>
       <c r="W73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.35182699478001489</v>
       </c>
       <c r="X73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.8855820105820069E-3</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.20223398001175782</v>
       </c>
     </row>
@@ -9012,19 +9348,19 @@
       </c>
       <c r="R74" s="80"/>
       <c r="V74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.76543209876542584</v>
       </c>
       <c r="W74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.58001491424310214</v>
       </c>
       <c r="X74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.62888558201058198</v>
       </c>
       <c r="Y74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1969429747207525</v>
       </c>
     </row>
@@ -9064,19 +9400,19 @@
       </c>
       <c r="R75" s="80"/>
       <c r="V75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.76543209876542584</v>
       </c>
       <c r="W75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.8283370618941088</v>
       </c>
       <c r="X75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8565641534391533</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.7048794826572604</v>
       </c>
     </row>
@@ -9143,15 +9479,15 @@
         <v>63</v>
       </c>
       <c r="V83">
-        <f t="shared" ref="V83:V92" si="20">(C83-$V$82)/$V$81</f>
+        <f t="shared" ref="V83:V92" si="22">(C83-$V$82)/$V$81</f>
         <v>-0.3935483870967742</v>
       </c>
       <c r="W83">
-        <f t="shared" ref="W83:W92" si="21">(E83-$W$82)/$W$81</f>
+        <f t="shared" ref="W83:W92" si="23">(E83-$W$82)/$W$81</f>
         <v>-0.32923076923076922</v>
       </c>
       <c r="X83">
-        <f t="shared" ref="X83:X92" si="22">(K83-$X$82)/$X$81</f>
+        <f t="shared" ref="X83:X92" si="24">(K83-$X$82)/$X$81</f>
         <v>-0.33424657534246582</v>
       </c>
     </row>
@@ -9190,15 +9526,15 @@
         <v>63</v>
       </c>
       <c r="V84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.3827956989247312</v>
       </c>
       <c r="W84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.29846153846153844</v>
       </c>
       <c r="X84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-0.33424657534246582</v>
       </c>
     </row>
@@ -9237,15 +9573,15 @@
         <v>37</v>
       </c>
       <c r="V85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.3827956989247312</v>
       </c>
       <c r="W85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.4523076923076923</v>
       </c>
       <c r="X85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1.0465753424657536</v>
       </c>
     </row>
@@ -9284,15 +9620,15 @@
         <v>73</v>
       </c>
       <c r="V86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.3720430107526882</v>
       </c>
       <c r="W86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.29846153846153844</v>
       </c>
       <c r="X86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-6.0273972602739805E-2</v>
       </c>
     </row>
@@ -9331,15 +9667,15 @@
         <v>80</v>
       </c>
       <c r="V87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.35053763440860214</v>
       </c>
       <c r="W87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.32923076923076922</v>
       </c>
       <c r="X87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.13150684931506842</v>
       </c>
     </row>
@@ -9378,15 +9714,15 @@
         <v>78</v>
       </c>
       <c r="V88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.25913978494623657</v>
       </c>
       <c r="W88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.23692307692307693</v>
       </c>
       <c r="X88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.6712328767123208E-2</v>
       </c>
     </row>
@@ -9425,15 +9761,15 @@
         <v>80</v>
       </c>
       <c r="V89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.25913978494623657</v>
       </c>
       <c r="W89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.29846153846153844</v>
       </c>
       <c r="X89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.13150684931506842</v>
       </c>
     </row>
@@ -9472,15 +9808,15 @@
         <v>84</v>
       </c>
       <c r="V90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-1.7204301075268831E-2</v>
       </c>
       <c r="W90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.23692307692307693</v>
       </c>
       <c r="X90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.24109589041095883</v>
       </c>
     </row>
@@ -9519,15 +9855,15 @@
         <v>84</v>
       </c>
       <c r="V91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.81075268817204305</v>
       </c>
       <c r="W91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.93230769230769228</v>
       </c>
       <c r="X91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.24109589041095883</v>
       </c>
     </row>
@@ -9566,15 +9902,15 @@
         <v>110</v>
       </c>
       <c r="V92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.6064516129032258</v>
       </c>
       <c r="W92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.5476923076923077</v>
       </c>
       <c r="X92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.95342465753424654</v>
       </c>
     </row>
@@ -14089,8 +14425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="D20:M20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15275,8 +15611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16877,7 +17213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
@@ -18550,6 +18886,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
@@ -18560,14 +18904,6 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18578,7 +18914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M24" sqref="B24:M29"/>
     </sheetView>
@@ -20311,6 +20647,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="P3:AE3"/>
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="P4:Q4"/>
@@ -20321,14 +20665,6 @@
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20339,8 +20675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:M10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21970,7 +22306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -23157,8 +23493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="B25:M29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Data-Burgoin.xlsx
+++ b/Data-Burgoin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="11715" windowHeight="7620"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="11715" windowHeight="7620" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="28-04-13" sheetId="1" r:id="rId1"/>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:M23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E16" sqref="E6:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3403,12 +3403,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:AE3"/>
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -3421,6 +3415,12 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3430,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3490,17 +3490,26 @@
         <f>SQRT(SUMSQ(Q2:Q42)/COUNTA(Q2:Q42))</f>
         <v>12.022876428138883</v>
       </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
       <c r="S1" s="79">
         <f>SQRT(SUMSQ(S2:S42)/COUNTA(S2:S42))</f>
         <v>10.128265491669591</v>
       </c>
+      <c r="T1">
+        <v>2</v>
+      </c>
       <c r="U1" s="79">
         <f>SQRT(SUMSQ(U2:U42)/COUNTA(U2:U42))</f>
         <v>7.229450832493427</v>
       </c>
+      <c r="V1">
+        <v>5</v>
+      </c>
       <c r="W1" s="79">
         <f>SQRT(SUMSQ(W2:W42)/COUNTA(W2:W42))</f>
-        <v>11.764048385785532</v>
+        <v>11.547039077555084</v>
       </c>
       <c r="X1" s="75"/>
       <c r="Y1" s="79">
@@ -3576,28 +3585,28 @@
         <v>-14.383319999999998</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R42" si="6" xml:space="preserve"> -0.0000003143*(C2)^3 + 0.0005606*(C2)^2 - 0.01602*(C2) + 75.46</f>
+        <f t="shared" ref="R2:R44" si="6" xml:space="preserve"> -0.0000003143*(C2)^3 + 0.0005606*(C2)^2 - 0.01602*(C2) + 75.46</f>
         <v>75.444050886399992</v>
       </c>
       <c r="S2" s="80">
-        <f t="shared" ref="S2:S42" si="7">K2-R2</f>
+        <f t="shared" ref="S2:S44" si="7">K2-R2</f>
         <v>-12.444050886399992</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T42" si="8" xml:space="preserve"> 76.44 - (0.08533*C2) - (0.003054*E2) + (0.004229*(C2)^2) - (0.002185*C2*E2) + (0.0002715*(E2)^2) - (0.000003174*((C2)^2)*E2) + (0.000001423*C2*(E2)^2) - (0.0000001513*(E2)^3)</f>
+        <f t="shared" ref="T2:T44" si="8" xml:space="preserve"> 76.44 - (0.08533*C2) - (0.003054*E2) + (0.004229*(C2)^2) - (0.002185*C2*E2) + (0.0002715*(E2)^2) - (0.000003174*((C2)^2)*E2) + (0.000001423*C2*(E2)^2) - (0.0000001513*(E2)^3)</f>
         <v>73.77286725999997</v>
       </c>
       <c r="U2" s="80">
-        <f t="shared" ref="U2:U42" si="9">K2-T2</f>
+        <f t="shared" ref="U2:U44" si="9">K2-T2</f>
         <v>-10.77286725999997</v>
       </c>
       <c r="V2">
-        <f>426.44 + 0.0035805*C2 + 0.020846*E2 - 56.528*A2 + 2.1107*G2</f>
-        <v>75.613694000000038</v>
+        <f>425 + 0.045635*C2 + 0.01423*E2 - 56.6*A2 + 2.127*G2</f>
+        <v>74.61948000000001</v>
       </c>
       <c r="W2" s="80">
         <f>K2-V2</f>
-        <v>-12.613694000000038</v>
+        <v>-11.61948000000001</v>
       </c>
       <c r="X2" s="15">
         <f xml:space="preserve"> 95.72 - 1.33*C2 - 0.07005*E2 + 0.04464*C2^2 - 0.01072*C2*E2 + 0.001403*E2^2 - 0.0004819*C2^3 + 0.0002204*C2^2*E2 - 0.00002532*C2*E2^2 + 0.0000009191*C2^4 - 0.0000004632642*C2^3*E2 + 0.00000005263*C2^2*E2^2</f>
@@ -3699,12 +3708,12 @@
         <v>4.802013720000005</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V42" si="10">426.44 + 0.0035805*C3 + 0.020846*E3 - 56.528*A3 + 2.1107*G3</f>
-        <v>76.328586500000057</v>
+        <f t="shared" ref="V3:V44" si="10">425 + 0.045635*C3 + 0.01423*E3 - 56.6*A3 + 2.127*G3</f>
+        <v>76.187254999999993</v>
       </c>
       <c r="W3" s="80">
-        <f t="shared" ref="W3:W42" si="11">K3-V3</f>
-        <v>1.671413499999943</v>
+        <f t="shared" ref="W3:W44" si="11">K3-V3</f>
+        <v>1.8127450000000067</v>
       </c>
       <c r="X3" s="15">
         <f t="shared" ref="X3:X42" si="12" xml:space="preserve"> 95.72 - 1.33*C3 - 0.07005*E3 + 0.04464*C3^2 - 0.01072*C3*E3 + 0.001403*E3^2 - 0.0004819*C3^3 + 0.0002204*C3^2*E3 - 0.00002532*C3*E3^2 + 0.0000009191*C3^4 - 0.0000004632642*C3^3*E3 + 0.00000005263*C3^2*E3^2</f>
@@ -3807,11 +3816,11 @@
       </c>
       <c r="V4">
         <f t="shared" si="10"/>
-        <v>75.836476000000033</v>
+        <v>74.944320000000005</v>
       </c>
       <c r="W4" s="80">
         <f t="shared" si="11"/>
-        <v>-2.8364760000000331</v>
+        <v>-1.9443200000000047</v>
       </c>
       <c r="X4" s="15">
         <f t="shared" si="12"/>
@@ -3917,11 +3926,11 @@
       </c>
       <c r="V5">
         <f t="shared" si="10"/>
-        <v>75.829315000000037</v>
+        <v>74.853049999999996</v>
       </c>
       <c r="W5" s="80">
         <f t="shared" si="11"/>
-        <v>-12.829315000000037</v>
+        <v>-11.853049999999996</v>
       </c>
       <c r="X5" s="15">
         <f t="shared" si="12"/>
@@ -4024,11 +4033,11 @@
       </c>
       <c r="V6">
         <f t="shared" si="10"/>
-        <v>75.398073000000039</v>
+        <v>74.385909999999967</v>
       </c>
       <c r="W6" s="80">
         <f t="shared" si="11"/>
-        <v>-12.398073000000039</v>
+        <v>-11.385909999999967</v>
       </c>
       <c r="X6" s="15">
         <f t="shared" si="12"/>
@@ -4131,11 +4140,11 @@
       </c>
       <c r="V7">
         <f t="shared" si="10"/>
-        <v>75.380170500000048</v>
+        <v>74.157734999999946</v>
       </c>
       <c r="W7" s="80">
         <f t="shared" si="11"/>
-        <v>-12.380170500000048</v>
+        <v>-11.157734999999946</v>
       </c>
       <c r="X7" s="15">
         <f t="shared" si="12"/>
@@ -4238,11 +4247,11 @@
       </c>
       <c r="V8">
         <f t="shared" si="10"/>
-        <v>75.20393500000003</v>
+        <v>74.426150000000007</v>
       </c>
       <c r="W8" s="80">
         <f t="shared" si="11"/>
-        <v>-12.20393500000003</v>
+        <v>-11.426150000000007</v>
       </c>
       <c r="X8" s="15">
         <f t="shared" si="12"/>
@@ -4345,11 +4354,11 @@
       </c>
       <c r="V9">
         <f t="shared" si="10"/>
-        <v>74.966831000000042</v>
+        <v>73.918769999999938</v>
       </c>
       <c r="W9" s="80">
         <f t="shared" si="11"/>
-        <v>-11.966831000000042</v>
+        <v>-10.918769999999938</v>
       </c>
       <c r="X9" s="15">
         <f t="shared" si="12"/>
@@ -4455,11 +4464,11 @@
       </c>
       <c r="V10">
         <f t="shared" si="10"/>
-        <v>74.744049000000047</v>
+        <v>73.59393</v>
       </c>
       <c r="W10" s="80">
         <f t="shared" si="11"/>
-        <v>-11.744049000000047</v>
+        <v>-10.59393</v>
       </c>
       <c r="X10" s="15">
         <f t="shared" si="12"/>
@@ -4562,11 +4571,11 @@
       </c>
       <c r="V11">
         <f t="shared" si="10"/>
-        <v>74.722566</v>
+        <v>73.320119999999974</v>
       </c>
       <c r="W11" s="80">
         <f t="shared" si="11"/>
-        <v>-11.722566</v>
+        <v>-10.320119999999974</v>
       </c>
       <c r="X11" s="15">
         <f t="shared" si="12"/>
@@ -4669,11 +4678,11 @@
       </c>
       <c r="V12">
         <f t="shared" si="10"/>
-        <v>73.952351000000036</v>
+        <v>72.79736999999993</v>
       </c>
       <c r="W12" s="80">
         <f t="shared" si="11"/>
-        <v>-1.9523510000000357</v>
+        <v>-0.79736999999992975</v>
       </c>
       <c r="X12" s="15">
         <f t="shared" si="12"/>
@@ -4776,11 +4785,11 @@
       </c>
       <c r="V13">
         <f t="shared" si="10"/>
-        <v>73.941609500000041</v>
+        <v>72.660464999999974</v>
       </c>
       <c r="W13" s="80">
         <f t="shared" si="11"/>
-        <v>4.0583904999999589</v>
+        <v>5.3395350000000263</v>
       </c>
       <c r="X13" s="15">
         <f t="shared" si="12"/>
@@ -4883,11 +4892,11 @@
       </c>
       <c r="V14">
         <f t="shared" si="10"/>
-        <v>73.948770500000037</v>
+        <v>72.751734999999925</v>
       </c>
       <c r="W14" s="80">
         <f t="shared" si="11"/>
-        <v>4.0512294999999625</v>
+        <v>5.2482650000000746</v>
       </c>
       <c r="X14" s="15">
         <f t="shared" si="12"/>
@@ -4990,11 +4999,11 @@
       </c>
       <c r="V15">
         <f t="shared" si="10"/>
-        <v>73.938029000000043</v>
+        <v>72.614829999999969</v>
       </c>
       <c r="W15" s="80">
         <f t="shared" si="11"/>
-        <v>4.0619709999999571</v>
+        <v>5.3851700000000307</v>
       </c>
       <c r="X15" s="15">
         <f t="shared" si="12"/>
@@ -5097,11 +5106,11 @@
       </c>
       <c r="V16">
         <f t="shared" si="10"/>
-        <v>73.941609500000041</v>
+        <v>72.660464999999974</v>
       </c>
       <c r="W16" s="80">
         <f t="shared" si="11"/>
-        <v>4.0583904999999589</v>
+        <v>5.3395350000000263</v>
       </c>
       <c r="X16" s="15">
         <f t="shared" si="12"/>
@@ -5204,11 +5213,11 @@
       </c>
       <c r="V17">
         <f t="shared" si="10"/>
-        <v>73.941609500000041</v>
+        <v>72.660464999999974</v>
       </c>
       <c r="W17" s="80">
         <f t="shared" si="11"/>
-        <v>4.0583904999999589</v>
+        <v>5.3395350000000263</v>
       </c>
       <c r="X17" s="15">
         <f t="shared" si="12"/>
@@ -5311,11 +5320,11 @@
       </c>
       <c r="V18">
         <f t="shared" si="10"/>
-        <v>73.945190000000039</v>
+        <v>72.706099999999921</v>
       </c>
       <c r="W18" s="80">
         <f t="shared" si="11"/>
-        <v>4.0548099999999607</v>
+        <v>5.2939000000000789</v>
       </c>
       <c r="X18" s="15">
         <f t="shared" si="12"/>
@@ -5418,11 +5427,11 @@
       </c>
       <c r="V19">
         <f t="shared" si="10"/>
-        <v>73.96309250000003</v>
+        <v>72.934274999999943</v>
       </c>
       <c r="W19" s="80">
         <f t="shared" si="11"/>
-        <v>4.0369074999999697</v>
+        <v>5.0657250000000573</v>
       </c>
       <c r="X19" s="15">
         <f t="shared" si="12"/>
@@ -5525,11 +5534,11 @@
       </c>
       <c r="V20">
         <f t="shared" si="10"/>
-        <v>73.521109000000038</v>
+        <v>72.330229999999958</v>
       </c>
       <c r="W20" s="80">
         <f t="shared" si="11"/>
-        <v>4.4788909999999618</v>
+        <v>5.6697700000000424</v>
       </c>
       <c r="X20" s="15">
         <f t="shared" si="12"/>
@@ -5632,11 +5641,11 @@
       </c>
       <c r="V21">
         <f t="shared" si="10"/>
-        <v>73.524689500000036</v>
+        <v>72.375864999999962</v>
       </c>
       <c r="W21" s="80">
         <f t="shared" si="11"/>
-        <v>4.4753104999999636</v>
+        <v>5.6241350000000381</v>
       </c>
       <c r="X21" s="15">
         <f t="shared" si="12"/>
@@ -5739,11 +5748,11 @@
       </c>
       <c r="V22">
         <f t="shared" si="10"/>
-        <v>73.29116599999999</v>
+        <v>71.914119999999954</v>
       </c>
       <c r="W22" s="80">
         <f t="shared" si="11"/>
-        <v>4.7088340000000102</v>
+        <v>6.0858800000000457</v>
       </c>
       <c r="X22" s="15">
         <f t="shared" si="12"/>
@@ -5846,11 +5855,11 @@
       </c>
       <c r="V23">
         <f t="shared" si="10"/>
-        <v>73.284004999999993</v>
+        <v>71.822849999999946</v>
       </c>
       <c r="W23" s="80">
         <f t="shared" si="11"/>
-        <v>4.7159950000000066</v>
+        <v>6.1771500000000543</v>
       </c>
       <c r="X23" s="15">
         <f t="shared" si="12"/>
@@ -5953,11 +5962,11 @@
       </c>
       <c r="V24">
         <f t="shared" si="10"/>
-        <v>272.27485000000007</v>
+        <v>274.24350000000004</v>
       </c>
       <c r="W24" s="80">
         <f t="shared" si="11"/>
-        <v>-20.274850000000072</v>
+        <v>-22.24350000000004</v>
       </c>
       <c r="X24" s="15">
         <f t="shared" si="12"/>
@@ -6063,11 +6072,11 @@
       </c>
       <c r="V25">
         <f t="shared" si="10"/>
-        <v>154.29198500000004</v>
+        <v>153.53795000000002</v>
       </c>
       <c r="W25" s="80">
         <f t="shared" si="11"/>
-        <v>49.708014999999961</v>
+        <v>50.462049999999977</v>
       </c>
       <c r="X25" s="15">
         <f t="shared" si="12"/>
@@ -6170,11 +6179,11 @@
       </c>
       <c r="V26">
         <f t="shared" si="10"/>
-        <v>121.25012500000001</v>
+        <v>118.27674999999995</v>
       </c>
       <c r="W26" s="80">
         <f t="shared" si="11"/>
-        <v>4.7498749999999887</v>
+        <v>7.7232500000000499</v>
       </c>
       <c r="X26" s="15">
         <f t="shared" si="12"/>
@@ -6277,11 +6286,11 @@
       </c>
       <c r="V27">
         <f t="shared" si="10"/>
-        <v>98.445354999999978</v>
+        <v>95.547850000000039</v>
       </c>
       <c r="W27" s="80">
         <f t="shared" si="11"/>
-        <v>1.554645000000022</v>
+        <v>4.4521499999999605</v>
       </c>
       <c r="X27" s="15">
         <f t="shared" si="12"/>
@@ -6384,11 +6393,11 @@
       </c>
       <c r="V28">
         <f t="shared" si="10"/>
-        <v>87.807525000000027</v>
+        <v>85.694749999999999</v>
       </c>
       <c r="W28" s="80">
         <f t="shared" si="11"/>
-        <v>-3.8075250000000267</v>
+        <v>-1.6947499999999991</v>
       </c>
       <c r="X28" s="15">
         <f t="shared" si="12"/>
@@ -6491,11 +6500,11 @@
       </c>
       <c r="V29">
         <f t="shared" si="10"/>
-        <v>98.10450000000003</v>
+        <v>108.78400000000002</v>
       </c>
       <c r="W29" s="80">
         <f t="shared" si="11"/>
-        <v>11.89549999999997</v>
+        <v>1.2159999999999798</v>
       </c>
       <c r="X29" s="15">
         <f t="shared" si="12"/>
@@ -6599,11 +6608,11 @@
       </c>
       <c r="V30">
         <f t="shared" si="10"/>
-        <v>93.405386000000021</v>
+        <v>99.184020000000004</v>
       </c>
       <c r="W30" s="80">
         <f t="shared" si="11"/>
-        <v>-9.4053860000000213</v>
+        <v>-15.184020000000004</v>
       </c>
       <c r="X30" s="15">
         <f t="shared" si="12"/>
@@ -6709,11 +6718,11 @@
       </c>
       <c r="V31">
         <f t="shared" si="10"/>
-        <v>84.932509000000039</v>
+        <v>86.748830000000027</v>
       </c>
       <c r="W31" s="80">
         <f t="shared" si="11"/>
-        <v>-0.93250900000003867</v>
+        <v>-2.7488300000000265</v>
       </c>
       <c r="X31" s="15">
         <f t="shared" si="12"/>
@@ -6817,11 +6826,11 @@
       </c>
       <c r="V32">
         <f t="shared" si="10"/>
-        <v>84.354466500000058</v>
+        <v>84.410654999999991</v>
       </c>
       <c r="W32" s="80">
         <f t="shared" si="11"/>
-        <v>-4.3544665000000577</v>
+        <v>-4.4106549999999913</v>
       </c>
       <c r="X32" s="15">
         <f t="shared" si="12"/>
@@ -6925,11 +6934,11 @@
       </c>
       <c r="V33">
         <f t="shared" si="10"/>
-        <v>84.085138000000029</v>
+        <v>83.492559999999997</v>
       </c>
       <c r="W33" s="80">
         <f t="shared" si="11"/>
-        <v>-4.085138000000029</v>
+        <v>-3.4925599999999974</v>
       </c>
       <c r="X33" s="15">
         <f t="shared" si="12"/>
@@ -7033,11 +7042,11 @@
       </c>
       <c r="V34">
         <f t="shared" si="10"/>
-        <v>84.06365500000004</v>
+        <v>83.218750000000028</v>
       </c>
       <c r="W34" s="80">
         <f t="shared" si="11"/>
-        <v>-4.0636550000000398</v>
+        <v>-3.2187500000000284</v>
       </c>
       <c r="X34" s="15">
         <f t="shared" si="12"/>
@@ -7141,11 +7150,11 @@
       </c>
       <c r="V35">
         <f t="shared" si="10"/>
-        <v>84.060074500000042</v>
+        <v>83.173115000000024</v>
       </c>
       <c r="W35" s="80">
         <f t="shared" si="11"/>
-        <v>-4.0600745000000416</v>
+        <v>-3.1731150000000241</v>
       </c>
       <c r="X35" s="15">
         <f t="shared" si="12"/>
@@ -7249,11 +7258,11 @@
       </c>
       <c r="V36">
         <f t="shared" si="10"/>
-        <v>83.805068000000063</v>
+        <v>82.437559999999991</v>
       </c>
       <c r="W36" s="80">
         <f t="shared" si="11"/>
-        <v>-3.8050680000000625</v>
+        <v>-2.4375599999999906</v>
       </c>
       <c r="X36" s="15">
         <f t="shared" si="12"/>
@@ -7359,11 +7368,11 @@
       </c>
       <c r="V37">
         <f t="shared" si="10"/>
-        <v>83.589447000000007</v>
+        <v>82.203990000000005</v>
       </c>
       <c r="W37" s="80">
         <f t="shared" si="11"/>
-        <v>-9.5894470000000069</v>
+        <v>-8.2039900000000046</v>
       </c>
       <c r="X37" s="15">
         <f t="shared" si="12"/>
@@ -7466,11 +7475,11 @@
       </c>
       <c r="V38">
         <f t="shared" si="10"/>
-        <v>83.373826000000008</v>
+        <v>81.970419999999962</v>
       </c>
       <c r="W38" s="80">
         <f t="shared" si="11"/>
-        <v>-9.3738260000000082</v>
+        <v>-7.9704199999999616</v>
       </c>
       <c r="X38" s="15">
         <f t="shared" si="12"/>
@@ -7573,11 +7582,11 @@
       </c>
       <c r="V39">
         <f t="shared" si="10"/>
-        <v>79.858542499999999</v>
+        <v>80.922474999999991</v>
       </c>
       <c r="W39" s="80">
         <f t="shared" si="11"/>
-        <v>-8.8585424999999987</v>
+        <v>-9.9224749999999915</v>
       </c>
       <c r="X39" s="15">
         <f t="shared" si="12"/>
@@ -7680,11 +7689,11 @@
       </c>
       <c r="V40">
         <f t="shared" si="10"/>
-        <v>83.48671250000001</v>
+        <v>89.445874999999972</v>
       </c>
       <c r="W40" s="80">
         <f t="shared" si="11"/>
-        <v>26.51328749999999</v>
+        <v>20.554125000000028</v>
       </c>
       <c r="X40" s="15">
         <f t="shared" si="12"/>
@@ -7790,11 +7799,11 @@
       </c>
       <c r="V41">
         <f t="shared" si="10"/>
-        <v>81.978947500000004</v>
+        <v>82.80182499999998</v>
       </c>
       <c r="W41" s="80">
         <f t="shared" si="11"/>
-        <v>8.0210524999999961</v>
+        <v>7.1981750000000204</v>
       </c>
       <c r="X41" s="15">
         <f t="shared" si="12"/>
@@ -7897,11 +7906,11 @@
       </c>
       <c r="V42">
         <f t="shared" si="10"/>
-        <v>80.865037499999971</v>
+        <v>81.177624999999949</v>
       </c>
       <c r="W42" s="80">
         <f t="shared" si="11"/>
-        <v>-0.86503749999997126</v>
+        <v>-1.1776249999999493</v>
       </c>
       <c r="X42" s="15">
         <f t="shared" si="12"/>
@@ -7928,17 +7937,45 @@
         <v>5.9651476562499965</v>
       </c>
     </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="72"/>
+      <c r="S43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="W43" s="80"/>
+    </row>
     <row r="44" spans="1:31">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44">
-        <f>MIN(C2:C42)</f>
-        <v>10</v>
-      </c>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="19"/>
+      <c r="S44" s="80"/>
+      <c r="U44" s="80"/>
+      <c r="W44" s="80"/>
     </row>
     <row r="45" spans="1:31">
       <c r="A45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10005,8 +10042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K56" sqref="A56:K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14425,8 +14462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15611,8 +15648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:L8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M9" sqref="M6:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17213,7 +17250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
@@ -18886,14 +18923,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
@@ -18904,6 +18933,14 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18916,7 +18953,7 @@
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M24" sqref="B24:M29"/>
+      <selection pane="topRight" activeCell="M24" sqref="A24:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20647,14 +20684,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="P3:AE3"/>
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="P4:Q4"/>
@@ -20665,6 +20694,14 @@
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20675,8 +20712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:M10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M10" sqref="M6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22279,6 +22316,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:AE3"/>
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -22293,10 +22334,6 @@
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23493,8 +23530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M29" sqref="M25:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -25097,6 +25134,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:AE3"/>
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -25111,10 +25152,6 @@
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data-Burgoin.xlsx
+++ b/Data-Burgoin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="11715" windowHeight="7620" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="11715" windowHeight="7620" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="28-04-13" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,17 @@
     <sheet name="Hoja8" sheetId="11" r:id="rId10"/>
     <sheet name="Datos" sheetId="10" r:id="rId11"/>
     <sheet name="Hoja9" sheetId="12" r:id="rId12"/>
+    <sheet name="Hoja1" sheetId="14" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Hoja1!$E$1:$E$29</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="68">
   <si>
     <t>Burgoin</t>
   </si>
@@ -184,6 +188,51 @@
   </si>
   <si>
     <t>el de 385</t>
+  </si>
+  <si>
+    <t>Prom 2 y 6</t>
+  </si>
+  <si>
+    <t>Prom 1 y 2</t>
+  </si>
+  <si>
+    <t>qo</t>
+  </si>
+  <si>
+    <t>T. hasta mantenimiento</t>
+  </si>
+  <si>
+    <t>4d7h</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>2d2h</t>
+  </si>
+  <si>
+    <t>1d9h</t>
+  </si>
+  <si>
+    <t>1d1h</t>
+  </si>
+  <si>
+    <t>&lt;12</t>
+  </si>
+  <si>
+    <t>&gt;12</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
+  <si>
+    <t>&lt;100</t>
   </si>
 </sst>
 </file>
@@ -577,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -807,6 +856,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,6 +913,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E16" sqref="E6:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1178,49 +1244,49 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="82" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1232,7 +1298,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1838,9 +1904,7 @@
       <c r="L18" s="18">
         <v>216</v>
       </c>
-      <c r="M18" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M18" s="19"/>
       <c r="N18" s="17" t="s">
         <v>15</v>
       </c>
@@ -1882,9 +1946,7 @@
       <c r="L19" s="18">
         <v>225</v>
       </c>
-      <c r="M19" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M19" s="19"/>
       <c r="N19" s="17" t="s">
         <v>15</v>
       </c>
@@ -1926,9 +1988,7 @@
       <c r="L20" s="18">
         <v>225</v>
       </c>
-      <c r="M20" s="21" t="s">
-        <v>15</v>
-      </c>
+      <c r="M20" s="21"/>
       <c r="N20" s="17" t="s">
         <v>15</v>
       </c>
@@ -1970,9 +2030,7 @@
       <c r="L21" s="18">
         <v>250</v>
       </c>
-      <c r="M21" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M21" s="19"/>
       <c r="N21" s="17" t="s">
         <v>15</v>
       </c>
@@ -2014,9 +2072,7 @@
       <c r="L22" s="18">
         <v>250</v>
       </c>
-      <c r="M22" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M22" s="19"/>
       <c r="N22" s="17" t="s">
         <v>15</v>
       </c>
@@ -2058,9 +2114,7 @@
       <c r="L23" s="18">
         <v>204</v>
       </c>
-      <c r="M23" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M23" s="19"/>
       <c r="N23" s="17" t="s">
         <v>15</v>
       </c>
@@ -2363,70 +2417,70 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="82" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
-      <c r="P3" s="93" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="P3" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="84" t="s">
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="87" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2436,42 +2490,42 @@
       <c r="N4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="89" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90" t="s">
+      <c r="S4" s="92"/>
+      <c r="T4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="91"/>
-      <c r="V4" s="89" t="s">
+      <c r="U4" s="94"/>
+      <c r="V4" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90" t="s">
+      <c r="W4" s="92"/>
+      <c r="X4" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="89" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90" t="s">
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89" t="s">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="85"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="88"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2559,7 +2613,7 @@
       <c r="AE5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="86"/>
+      <c r="AF5" s="89"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="53">
@@ -3403,6 +3457,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:AE3"/>
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -3417,10 +3475,6 @@
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3430,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="C2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3486,41 +3540,51 @@
         <f>SQRT(SUMSQ(O2:O42)/COUNTA(O2:O42))</f>
         <v>29.944844287263219</v>
       </c>
+      <c r="P1" s="100">
+        <v>4</v>
+      </c>
       <c r="Q1" s="79">
         <f>SQRT(SUMSQ(Q2:Q42)/COUNTA(Q2:Q42))</f>
         <v>12.022876428138883</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="100">
         <v>1</v>
       </c>
       <c r="S1" s="79">
         <f>SQRT(SUMSQ(S2:S42)/COUNTA(S2:S42))</f>
         <v>10.128265491669591</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="100">
         <v>2</v>
       </c>
       <c r="U1" s="79">
         <f>SQRT(SUMSQ(U2:U42)/COUNTA(U2:U42))</f>
         <v>7.229450832493427</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="100">
         <v>5</v>
       </c>
       <c r="W1" s="79">
         <f>SQRT(SUMSQ(W2:W42)/COUNTA(W2:W42))</f>
         <v>11.547039077555084</v>
       </c>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="79">
+      <c r="X1" s="101">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="102">
         <f>SQRT(SUMSQ(Y2:Y42)/COUNTA(Y2:Y42))</f>
         <v>50.104172608612217</v>
       </c>
-      <c r="Z1" s="75"/>
+      <c r="Z1" s="101" t="s">
+        <v>53</v>
+      </c>
       <c r="AA1" s="79">
         <f>SQRT(SUMSQ(AA2:AA42)/COUNTA(AA2:AA42))</f>
         <v>24.378783529915079</v>
       </c>
+      <c r="AB1" s="100" t="s">
+        <v>54</v>
+      </c>
       <c r="AC1" s="79">
         <f>SQRT(SUMSQ(AC2:AC42)/COUNTA(AC2:AC42))</f>
         <v>7.6542598544637341</v>
@@ -3577,7 +3641,7 @@
         <v>-42.519420000000025</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P42" si="4" xml:space="preserve"> 75 + 0.02937*C2 + 0.017344*E2</f>
+        <f t="shared" ref="P2:P44" si="4" xml:space="preserve"> 75 + 0.02937*C2 + 0.017344*E2</f>
         <v>77.383319999999998</v>
       </c>
       <c r="Q2" s="80">
@@ -3589,7 +3653,7 @@
         <v>75.444050886399992</v>
       </c>
       <c r="S2" s="80">
-        <f t="shared" ref="S2:S44" si="7">K2-R2</f>
+        <f t="shared" ref="S2:S42" si="7">K2-R2</f>
         <v>-12.444050886399992</v>
       </c>
       <c r="T2">
@@ -3597,7 +3661,7 @@
         <v>73.77286725999997</v>
       </c>
       <c r="U2" s="80">
-        <f t="shared" ref="U2:U44" si="9">K2-T2</f>
+        <f t="shared" ref="U2:U42" si="9">K2-T2</f>
         <v>-10.77286725999997</v>
       </c>
       <c r="V2">
@@ -3712,11 +3776,11 @@
         <v>76.187254999999993</v>
       </c>
       <c r="W3" s="80">
-        <f t="shared" ref="W3:W44" si="11">K3-V3</f>
+        <f t="shared" ref="W3:W42" si="11">K3-V3</f>
         <v>1.8127450000000067</v>
       </c>
       <c r="X3" s="15">
-        <f t="shared" ref="X3:X42" si="12" xml:space="preserve"> 95.72 - 1.33*C3 - 0.07005*E3 + 0.04464*C3^2 - 0.01072*C3*E3 + 0.001403*E3^2 - 0.0004819*C3^3 + 0.0002204*C3^2*E3 - 0.00002532*C3*E3^2 + 0.0000009191*C3^4 - 0.0000004632642*C3^3*E3 + 0.00000005263*C3^2*E3^2</f>
+        <f t="shared" ref="X3:X44" si="12" xml:space="preserve"> 95.72 - 1.33*C3 - 0.07005*E3 + 0.04464*C3^2 - 0.01072*C3*E3 + 0.001403*E3^2 - 0.0004819*C3^3 + 0.0002204*C3^2*E3 - 0.00002532*C3*E3^2 + 0.0000009191*C3^4 - 0.0000004632642*C3^3*E3 + 0.00000005263*C3^2*E3^2</f>
         <v>78.570819118692</v>
       </c>
       <c r="Y3" s="15">
@@ -3724,7 +3788,7 @@
         <v>-0.57081911869200042</v>
       </c>
       <c r="Z3" s="15">
-        <f t="shared" ref="Z3:Z42" si="14">(T3+X3)/2</f>
+        <f t="shared" ref="Z3:Z44" si="14">(T3+X3)/2</f>
         <v>75.884402699345998</v>
       </c>
       <c r="AA3" s="80">
@@ -3732,7 +3796,7 @@
         <v>2.1155973006540023</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB42" si="16">(R3+T3)/2</f>
+        <f t="shared" ref="AB3:AB44" si="16">(R3+T3)/2</f>
         <v>74.668429819449997</v>
       </c>
       <c r="AC3" s="80">
@@ -7968,6 +8032,8 @@
       <c r="S44" s="80"/>
       <c r="U44" s="80"/>
       <c r="W44" s="80"/>
+      <c r="X44" s="15"/>
+      <c r="Z44" s="15"/>
     </row>
     <row r="45" spans="1:31">
       <c r="A45" t="s">
@@ -10042,7 +10108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K56" sqref="A56:K56"/>
     </sheetView>
   </sheetViews>
@@ -14458,12 +14524,268 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2">
+        <v>149.9</v>
+      </c>
+      <c r="B2" s="103">
+        <v>4.2027777777777775</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="83">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="B3" s="103">
+        <v>2.1027777777777779</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="B4" s="103">
+        <v>1.4020833333333333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>149.6</v>
+      </c>
+      <c r="B5" s="103">
+        <v>1.0527777777777778</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>149.5</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="E6" s="82">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>149.4</v>
+      </c>
+      <c r="B7" s="23">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="E7" s="82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="E8" s="82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E9" s="82">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="E10" s="82">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" s="82">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="E12" s="82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="E13" s="82">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="E14" s="82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="E15" s="82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="E16" s="82">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" s="82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="82">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="82">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="82">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="82">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" s="82">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" ht="15.75" thickBot="1">
+      <c r="E23" s="83">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="81">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="82">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="82">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="82">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="82">
+        <v>570</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" ht="15.75" thickBot="1">
+      <c r="E29" s="83">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="60"/>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="60"/>
+    </row>
+  </sheetData>
+  <sortState ref="D13:D53">
+    <sortCondition ref="D13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14478,49 +14800,49 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="82" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -14532,7 +14854,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -14786,9 +15108,7 @@
       <c r="L10" s="18">
         <v>227</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M10" s="19"/>
       <c r="N10" s="17" t="s">
         <v>15</v>
       </c>
@@ -14830,9 +15150,7 @@
       <c r="L11" s="18">
         <v>250</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M11" s="19"/>
       <c r="N11" s="17" t="s">
         <v>15</v>
       </c>
@@ -14874,9 +15192,7 @@
       <c r="L12" s="18">
         <v>250</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M12" s="19"/>
       <c r="N12" s="17" t="s">
         <v>15</v>
       </c>
@@ -14918,9 +15234,7 @@
       <c r="L13" s="18">
         <v>250</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M13" s="19"/>
       <c r="N13" s="17" t="s">
         <v>15</v>
       </c>
@@ -14962,9 +15276,7 @@
       <c r="L14" s="18">
         <v>250</v>
       </c>
-      <c r="M14" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M14" s="19"/>
       <c r="N14" s="17" t="s">
         <v>15</v>
       </c>
@@ -15006,9 +15318,7 @@
       <c r="L15" s="18">
         <v>250</v>
       </c>
-      <c r="M15" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M15" s="19"/>
       <c r="N15" s="17" t="s">
         <v>15</v>
       </c>
@@ -15050,9 +15360,7 @@
       <c r="L16" s="18">
         <v>250</v>
       </c>
-      <c r="M16" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M16" s="19"/>
       <c r="N16" s="17" t="s">
         <v>15</v>
       </c>
@@ -15094,9 +15402,7 @@
       <c r="L17" s="18">
         <v>250</v>
       </c>
-      <c r="M17" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M17" s="19"/>
       <c r="N17" s="17" t="s">
         <v>15</v>
       </c>
@@ -15138,9 +15444,7 @@
       <c r="L18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M18" s="19"/>
       <c r="N18" s="17" t="s">
         <v>15</v>
       </c>
@@ -15648,8 +15952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M9" sqref="M6:M9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O27" sqref="O25:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15664,49 +15968,49 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="82" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -15718,7 +16022,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -15972,9 +16276,7 @@
       <c r="L10" s="18">
         <v>204</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M10" s="19"/>
       <c r="N10" s="17" t="s">
         <v>15</v>
       </c>
@@ -16016,9 +16318,7 @@
       <c r="L11" s="18">
         <v>227</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M11" s="19"/>
       <c r="N11" s="17" t="s">
         <v>15</v>
       </c>
@@ -16060,9 +16360,7 @@
       <c r="L12" s="18">
         <v>227</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M12" s="19"/>
       <c r="N12" s="17" t="s">
         <v>15</v>
       </c>
@@ -16104,9 +16402,7 @@
       <c r="L13" s="18">
         <v>227</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M13" s="19"/>
       <c r="N13" s="17" t="s">
         <v>15</v>
       </c>
@@ -16148,9 +16444,7 @@
       <c r="L14" s="18">
         <v>227</v>
       </c>
-      <c r="M14" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M14" s="19"/>
       <c r="N14" s="17" t="s">
         <v>15</v>
       </c>
@@ -16192,9 +16486,7 @@
       <c r="L15" s="18">
         <v>227</v>
       </c>
-      <c r="M15" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M15" s="19"/>
       <c r="N15" s="17" t="s">
         <v>15</v>
       </c>
@@ -16236,9 +16528,7 @@
       <c r="L16" s="18">
         <v>227</v>
       </c>
-      <c r="M16" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M16" s="19"/>
       <c r="N16" s="17" t="s">
         <v>15</v>
       </c>
@@ -16280,9 +16570,7 @@
       <c r="L17" s="18">
         <v>227</v>
       </c>
-      <c r="M17" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M17" s="19"/>
       <c r="N17" s="17" t="s">
         <v>15</v>
       </c>
@@ -16324,9 +16612,7 @@
       <c r="L18" s="18">
         <v>227</v>
       </c>
-      <c r="M18" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M18" s="19"/>
       <c r="N18" s="17" t="s">
         <v>15</v>
       </c>
@@ -16368,9 +16654,7 @@
       <c r="L19" s="18">
         <v>227</v>
       </c>
-      <c r="M19" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M19" s="19"/>
       <c r="N19" s="17" t="s">
         <v>15</v>
       </c>
@@ -16412,9 +16696,7 @@
       <c r="L20" s="18">
         <v>250</v>
       </c>
-      <c r="M20" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M20" s="19"/>
       <c r="N20" s="17" t="s">
         <v>15</v>
       </c>
@@ -16456,9 +16738,7 @@
       <c r="L21" s="18">
         <v>250</v>
       </c>
-      <c r="M21" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M21" s="19"/>
       <c r="N21" s="17" t="s">
         <v>15</v>
       </c>
@@ -16500,9 +16780,7 @@
       <c r="L22" s="18">
         <v>250</v>
       </c>
-      <c r="M22" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M22" s="19"/>
       <c r="N22" s="17" t="s">
         <v>15</v>
       </c>
@@ -16544,9 +16822,7 @@
       <c r="L23" s="18">
         <v>250</v>
       </c>
-      <c r="M23" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M23" s="19"/>
       <c r="N23" s="17" t="s">
         <v>15</v>
       </c>
@@ -16588,9 +16864,7 @@
       <c r="L24" s="18">
         <v>227</v>
       </c>
-      <c r="M24" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="M24" s="19"/>
       <c r="N24" s="17" t="s">
         <v>15</v>
       </c>
@@ -17250,9 +17524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M12" sqref="M12"/>
+      <selection pane="topRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17270,70 +17544,70 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="82" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
-      <c r="P3" s="93" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="P3" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="84" t="s">
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="87" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -17343,42 +17617,42 @@
       <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="89" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90" t="s">
+      <c r="S4" s="92"/>
+      <c r="T4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="91"/>
-      <c r="V4" s="89" t="s">
+      <c r="U4" s="94"/>
+      <c r="V4" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90" t="s">
+      <c r="W4" s="92"/>
+      <c r="X4" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="89" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90" t="s">
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89" t="s">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="85"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="88"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -17466,7 +17740,7 @@
       <c r="AE5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="86"/>
+      <c r="AF5" s="89"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="12">
@@ -18923,6 +19197,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
@@ -18933,14 +19215,6 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18951,9 +19225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M24" sqref="A24:M24"/>
+      <selection pane="topRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18968,70 +19242,70 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="82" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
-      <c r="P3" s="93" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="P3" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="84" t="s">
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="87" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -19041,42 +19315,42 @@
       <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="89" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90" t="s">
+      <c r="S4" s="92"/>
+      <c r="T4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="91"/>
-      <c r="V4" s="89" t="s">
+      <c r="U4" s="94"/>
+      <c r="V4" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90" t="s">
+      <c r="W4" s="92"/>
+      <c r="X4" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="89" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90" t="s">
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89" t="s">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="85"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="88"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -19164,7 +19438,7 @@
       <c r="AE5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="86"/>
+      <c r="AF5" s="89"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="12">
@@ -20684,6 +20958,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="P3:AE3"/>
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="P4:Q4"/>
@@ -20694,14 +20976,6 @@
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20712,8 +20986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M10" sqref="M6:M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20728,70 +21002,70 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="82" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
-      <c r="P3" s="93" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="P3" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="84" t="s">
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="87" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -20801,42 +21075,42 @@
       <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="89" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90" t="s">
+      <c r="S4" s="92"/>
+      <c r="T4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="91"/>
-      <c r="V4" s="89" t="s">
+      <c r="U4" s="94"/>
+      <c r="V4" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90" t="s">
+      <c r="W4" s="92"/>
+      <c r="X4" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="89" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90" t="s">
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89" t="s">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="85"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="88"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -20924,7 +21198,7 @@
       <c r="AE5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="86"/>
+      <c r="AF5" s="89"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="12">
@@ -22316,6 +22590,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="L3:N3"/>
@@ -22332,8 +22608,6 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22359,49 +22633,49 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="82" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -22413,7 +22687,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -23546,70 +23820,70 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="82" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
-      <c r="P3" s="93" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="P3" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="84" t="s">
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="87" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -23619,42 +23893,42 @@
       <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="89" t="s">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90" t="s">
+      <c r="S4" s="92"/>
+      <c r="T4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="91"/>
-      <c r="V4" s="89" t="s">
+      <c r="U4" s="94"/>
+      <c r="V4" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="89"/>
-      <c r="X4" s="90" t="s">
+      <c r="W4" s="92"/>
+      <c r="X4" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="89" t="s">
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90" t="s">
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89" t="s">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="85"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="88"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -23742,7 +24016,7 @@
       <c r="AE5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="86"/>
+      <c r="AF5" s="89"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="12">
@@ -25134,6 +25408,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="L3:N3"/>
@@ -25150,8 +25426,6 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data-Burgoin.xlsx
+++ b/Data-Burgoin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="11715" windowHeight="7620" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="11715" windowHeight="7620" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="28-04-13" sheetId="1" r:id="rId1"/>
@@ -865,6 +865,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,14 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1244,49 +1244,49 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1298,7 +1298,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2417,70 +2417,70 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
-      <c r="P3" s="96" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="P3" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="87" t="s">
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="91" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2490,42 +2490,42 @@
       <c r="N4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="92" t="s">
+      <c r="Q4" s="98"/>
+      <c r="R4" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93" t="s">
+      <c r="S4" s="96"/>
+      <c r="T4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="94"/>
-      <c r="V4" s="92" t="s">
+      <c r="U4" s="98"/>
+      <c r="V4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93" t="s">
+      <c r="W4" s="96"/>
+      <c r="X4" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="92" t="s">
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="93" t="s">
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92" t="s">
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="88"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="92"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="AE5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="89"/>
+      <c r="AF5" s="93"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="53">
@@ -3540,49 +3540,49 @@
         <f>SQRT(SUMSQ(O2:O42)/COUNTA(O2:O42))</f>
         <v>29.944844287263219</v>
       </c>
-      <c r="P1" s="100">
+      <c r="P1" s="84">
         <v>4</v>
       </c>
       <c r="Q1" s="79">
         <f>SQRT(SUMSQ(Q2:Q42)/COUNTA(Q2:Q42))</f>
         <v>12.022876428138883</v>
       </c>
-      <c r="R1" s="100">
+      <c r="R1" s="84">
         <v>1</v>
       </c>
       <c r="S1" s="79">
         <f>SQRT(SUMSQ(S2:S42)/COUNTA(S2:S42))</f>
         <v>10.128265491669591</v>
       </c>
-      <c r="T1" s="100">
+      <c r="T1" s="84">
         <v>2</v>
       </c>
       <c r="U1" s="79">
         <f>SQRT(SUMSQ(U2:U42)/COUNTA(U2:U42))</f>
         <v>7.229450832493427</v>
       </c>
-      <c r="V1" s="100">
+      <c r="V1" s="84">
         <v>5</v>
       </c>
       <c r="W1" s="79">
         <f>SQRT(SUMSQ(W2:W42)/COUNTA(W2:W42))</f>
         <v>11.547039077555084</v>
       </c>
-      <c r="X1" s="101">
+      <c r="X1" s="85">
         <v>6</v>
       </c>
-      <c r="Y1" s="102">
+      <c r="Y1" s="86">
         <f>SQRT(SUMSQ(Y2:Y42)/COUNTA(Y2:Y42))</f>
         <v>50.104172608612217</v>
       </c>
-      <c r="Z1" s="101" t="s">
+      <c r="Z1" s="85" t="s">
         <v>53</v>
       </c>
       <c r="AA1" s="79">
         <f>SQRT(SUMSQ(AA2:AA42)/COUNTA(AA2:AA42))</f>
         <v>24.378783529915079</v>
       </c>
-      <c r="AB1" s="100" t="s">
+      <c r="AB1" s="84" t="s">
         <v>54</v>
       </c>
       <c r="AC1" s="79">
@@ -3641,7 +3641,7 @@
         <v>-42.519420000000025</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P44" si="4" xml:space="preserve"> 75 + 0.02937*C2 + 0.017344*E2</f>
+        <f t="shared" ref="P2:P42" si="4" xml:space="preserve"> 75 + 0.02937*C2 + 0.017344*E2</f>
         <v>77.383319999999998</v>
       </c>
       <c r="Q2" s="80">
@@ -3649,7 +3649,7 @@
         <v>-14.383319999999998</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R44" si="6" xml:space="preserve"> -0.0000003143*(C2)^3 + 0.0005606*(C2)^2 - 0.01602*(C2) + 75.46</f>
+        <f t="shared" ref="R2:R42" si="6" xml:space="preserve"> -0.0000003143*(C2)^3 + 0.0005606*(C2)^2 - 0.01602*(C2) + 75.46</f>
         <v>75.444050886399992</v>
       </c>
       <c r="S2" s="80">
@@ -3657,7 +3657,7 @@
         <v>-12.444050886399992</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T44" si="8" xml:space="preserve"> 76.44 - (0.08533*C2) - (0.003054*E2) + (0.004229*(C2)^2) - (0.002185*C2*E2) + (0.0002715*(E2)^2) - (0.000003174*((C2)^2)*E2) + (0.000001423*C2*(E2)^2) - (0.0000001513*(E2)^3)</f>
+        <f t="shared" ref="T2:T42" si="8" xml:space="preserve"> 76.44 - (0.08533*C2) - (0.003054*E2) + (0.004229*(C2)^2) - (0.002185*C2*E2) + (0.0002715*(E2)^2) - (0.000003174*((C2)^2)*E2) + (0.000001423*C2*(E2)^2) - (0.0000001513*(E2)^3)</f>
         <v>73.77286725999997</v>
       </c>
       <c r="U2" s="80">
@@ -3772,7 +3772,7 @@
         <v>4.802013720000005</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V44" si="10">425 + 0.045635*C3 + 0.01423*E3 - 56.6*A3 + 2.127*G3</f>
+        <f t="shared" ref="V3:V42" si="10">425 + 0.045635*C3 + 0.01423*E3 - 56.6*A3 + 2.127*G3</f>
         <v>76.187254999999993</v>
       </c>
       <c r="W3" s="80">
@@ -3780,7 +3780,7 @@
         <v>1.8127450000000067</v>
       </c>
       <c r="X3" s="15">
-        <f t="shared" ref="X3:X44" si="12" xml:space="preserve"> 95.72 - 1.33*C3 - 0.07005*E3 + 0.04464*C3^2 - 0.01072*C3*E3 + 0.001403*E3^2 - 0.0004819*C3^3 + 0.0002204*C3^2*E3 - 0.00002532*C3*E3^2 + 0.0000009191*C3^4 - 0.0000004632642*C3^3*E3 + 0.00000005263*C3^2*E3^2</f>
+        <f t="shared" ref="X3:X42" si="12" xml:space="preserve"> 95.72 - 1.33*C3 - 0.07005*E3 + 0.04464*C3^2 - 0.01072*C3*E3 + 0.001403*E3^2 - 0.0004819*C3^3 + 0.0002204*C3^2*E3 - 0.00002532*C3*E3^2 + 0.0000009191*C3^4 - 0.0000004632642*C3^3*E3 + 0.00000005263*C3^2*E3^2</f>
         <v>78.570819118692</v>
       </c>
       <c r="Y3" s="15">
@@ -3788,7 +3788,7 @@
         <v>-0.57081911869200042</v>
       </c>
       <c r="Z3" s="15">
-        <f t="shared" ref="Z3:Z44" si="14">(T3+X3)/2</f>
+        <f t="shared" ref="Z3:Z42" si="14">(T3+X3)/2</f>
         <v>75.884402699345998</v>
       </c>
       <c r="AA3" s="80">
@@ -3796,7 +3796,7 @@
         <v>2.1155973006540023</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB44" si="16">(R3+T3)/2</f>
+        <f t="shared" ref="AB3:AB42" si="16">(R3+T3)/2</f>
         <v>74.668429819449997</v>
       </c>
       <c r="AC3" s="80">
@@ -10106,10 +10106,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K56" sqref="A56:K56"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64:K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14519,8 +14519,957 @@
         <v>9.2095749999999867</v>
       </c>
     </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="13">
+        <v>7</v>
+      </c>
+      <c r="B64" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="C64" s="15">
+        <v>1500</v>
+      </c>
+      <c r="D64" s="14">
+        <v>5</v>
+      </c>
+      <c r="E64" s="15">
+        <v>9000</v>
+      </c>
+      <c r="F64" s="14">
+        <v>25</v>
+      </c>
+      <c r="G64" s="15">
+        <v>23</v>
+      </c>
+      <c r="H64" s="14">
+        <v>14</v>
+      </c>
+      <c r="I64" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J64" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="K64" s="19">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="13">
+        <v>7</v>
+      </c>
+      <c r="B65" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="C65" s="15">
+        <v>570</v>
+      </c>
+      <c r="D65" s="14">
+        <v>4</v>
+      </c>
+      <c r="E65" s="15">
+        <v>3500</v>
+      </c>
+      <c r="F65" s="14">
+        <v>20</v>
+      </c>
+      <c r="G65" s="15">
+        <v>23</v>
+      </c>
+      <c r="H65" s="14">
+        <v>14</v>
+      </c>
+      <c r="I65" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J65" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="K65" s="19">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="B66" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="C66" s="15">
+        <v>250</v>
+      </c>
+      <c r="D66" s="14">
+        <v>4</v>
+      </c>
+      <c r="E66" s="15">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="14">
+        <v>20</v>
+      </c>
+      <c r="G66" s="15">
+        <v>22</v>
+      </c>
+      <c r="H66" s="14">
+        <v>14</v>
+      </c>
+      <c r="I66" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J66" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="K66" s="19">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="13">
+        <v>7</v>
+      </c>
+      <c r="B67" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="C67" s="15">
+        <v>110</v>
+      </c>
+      <c r="D67" s="14">
+        <v>4</v>
+      </c>
+      <c r="E67" s="15">
+        <v>900</v>
+      </c>
+      <c r="F67" s="14">
+        <v>20</v>
+      </c>
+      <c r="G67" s="15">
+        <v>23</v>
+      </c>
+      <c r="H67" s="14">
+        <v>14</v>
+      </c>
+      <c r="I67" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J67" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="K67" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="B68" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C68" s="15">
+        <v>400</v>
+      </c>
+      <c r="D68" s="14">
+        <v>3</v>
+      </c>
+      <c r="E68" s="15">
+        <v>700</v>
+      </c>
+      <c r="F68" s="14">
+        <v>15</v>
+      </c>
+      <c r="G68" s="15">
+        <v>27</v>
+      </c>
+      <c r="H68" s="14">
+        <v>22</v>
+      </c>
+      <c r="I68" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J68" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K68" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="B69" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="C69" s="15">
+        <v>252</v>
+      </c>
+      <c r="D69" s="14">
+        <v>3</v>
+      </c>
+      <c r="E69" s="15">
+        <v>500</v>
+      </c>
+      <c r="F69" s="14">
+        <v>20</v>
+      </c>
+      <c r="G69" s="15">
+        <v>27</v>
+      </c>
+      <c r="H69" s="14">
+        <v>18</v>
+      </c>
+      <c r="I69" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J69" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K69" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="B70" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C70" s="15">
+        <v>98</v>
+      </c>
+      <c r="D70" s="14">
+        <v>2</v>
+      </c>
+      <c r="E70" s="15">
+        <v>120</v>
+      </c>
+      <c r="F70" s="14">
+        <v>20</v>
+      </c>
+      <c r="G70" s="15">
+        <v>27</v>
+      </c>
+      <c r="H70" s="14">
+        <v>17</v>
+      </c>
+      <c r="I70" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J70" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K70" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B71" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C71" s="15">
+        <v>225</v>
+      </c>
+      <c r="D71" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E71" s="15">
+        <v>300</v>
+      </c>
+      <c r="F71" s="14">
+        <v>30</v>
+      </c>
+      <c r="G71" s="15">
+        <v>27</v>
+      </c>
+      <c r="H71" s="14">
+        <v>23</v>
+      </c>
+      <c r="I71" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J71" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K71" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B72" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C72" s="15">
+        <v>95</v>
+      </c>
+      <c r="D72" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E72" s="15">
+        <v>250</v>
+      </c>
+      <c r="F72" s="14">
+        <v>30</v>
+      </c>
+      <c r="G72" s="15">
+        <v>27</v>
+      </c>
+      <c r="H72" s="14">
+        <v>23</v>
+      </c>
+      <c r="I72" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J72" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K72" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="B73" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="C73" s="15">
+        <v>250</v>
+      </c>
+      <c r="D73" s="14">
+        <v>4</v>
+      </c>
+      <c r="E73" s="15">
+        <v>1800</v>
+      </c>
+      <c r="F73" s="14">
+        <v>20</v>
+      </c>
+      <c r="G73" s="15">
+        <v>22</v>
+      </c>
+      <c r="H73" s="14">
+        <v>14</v>
+      </c>
+      <c r="I73" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J73" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="K73" s="19">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="13">
+        <v>7</v>
+      </c>
+      <c r="B74" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="C74" s="15">
+        <v>1500</v>
+      </c>
+      <c r="D74" s="14">
+        <v>5</v>
+      </c>
+      <c r="E74" s="15">
+        <v>9000</v>
+      </c>
+      <c r="F74" s="14">
+        <v>25</v>
+      </c>
+      <c r="G74" s="15">
+        <v>23</v>
+      </c>
+      <c r="H74" s="14">
+        <v>14</v>
+      </c>
+      <c r="I74" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J74" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="K74" s="19">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="13">
+        <v>7</v>
+      </c>
+      <c r="B75" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="C75" s="15">
+        <v>570</v>
+      </c>
+      <c r="D75" s="14">
+        <v>4</v>
+      </c>
+      <c r="E75" s="15">
+        <v>3500</v>
+      </c>
+      <c r="F75" s="14">
+        <v>20</v>
+      </c>
+      <c r="G75" s="15">
+        <v>23</v>
+      </c>
+      <c r="H75" s="14">
+        <v>14</v>
+      </c>
+      <c r="I75" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J75" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="K75" s="19">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="13">
+        <v>7</v>
+      </c>
+      <c r="B76" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="C76" s="15">
+        <v>110</v>
+      </c>
+      <c r="D76" s="14">
+        <v>4</v>
+      </c>
+      <c r="E76" s="15">
+        <v>900</v>
+      </c>
+      <c r="F76" s="14">
+        <v>20</v>
+      </c>
+      <c r="G76" s="15">
+        <v>23</v>
+      </c>
+      <c r="H76" s="14">
+        <v>14</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J76" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="K76" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B77" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C77" s="15">
+        <v>225</v>
+      </c>
+      <c r="D77" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E77" s="15">
+        <v>300</v>
+      </c>
+      <c r="F77" s="14">
+        <v>30</v>
+      </c>
+      <c r="G77" s="15">
+        <v>27</v>
+      </c>
+      <c r="H77" s="14">
+        <v>23</v>
+      </c>
+      <c r="I77" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J77" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K77" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B78" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C78" s="15">
+        <v>95</v>
+      </c>
+      <c r="D78" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E78" s="15">
+        <v>250</v>
+      </c>
+      <c r="F78" s="14">
+        <v>30</v>
+      </c>
+      <c r="G78" s="15">
+        <v>27</v>
+      </c>
+      <c r="H78" s="14">
+        <v>23</v>
+      </c>
+      <c r="I78" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J78" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K78" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="B79" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C79" s="15">
+        <v>98</v>
+      </c>
+      <c r="D79" s="14">
+        <v>2</v>
+      </c>
+      <c r="E79" s="15">
+        <v>120</v>
+      </c>
+      <c r="F79" s="14">
+        <v>20</v>
+      </c>
+      <c r="G79" s="15">
+        <v>27</v>
+      </c>
+      <c r="H79" s="14">
+        <v>17</v>
+      </c>
+      <c r="I79" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J79" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K79" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B80" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C80" s="15">
+        <v>225</v>
+      </c>
+      <c r="D80" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E80" s="15">
+        <v>300</v>
+      </c>
+      <c r="F80" s="14">
+        <v>30</v>
+      </c>
+      <c r="G80" s="15">
+        <v>27</v>
+      </c>
+      <c r="H80" s="14">
+        <v>23</v>
+      </c>
+      <c r="I80" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J80" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K80" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B81" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C81" s="15">
+        <v>95</v>
+      </c>
+      <c r="D81" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E81" s="15">
+        <v>250</v>
+      </c>
+      <c r="F81" s="14">
+        <v>30</v>
+      </c>
+      <c r="G81" s="15">
+        <v>27</v>
+      </c>
+      <c r="H81" s="14">
+        <v>23</v>
+      </c>
+      <c r="I81" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J81" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K81" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="B82" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="C82" s="15">
+        <v>252</v>
+      </c>
+      <c r="D82" s="14">
+        <v>3</v>
+      </c>
+      <c r="E82" s="15">
+        <v>500</v>
+      </c>
+      <c r="F82" s="14">
+        <v>20</v>
+      </c>
+      <c r="G82" s="15">
+        <v>27</v>
+      </c>
+      <c r="H82" s="14">
+        <v>18</v>
+      </c>
+      <c r="I82" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J82" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K82" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="B83" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C83" s="15">
+        <v>400</v>
+      </c>
+      <c r="D83" s="14">
+        <v>3</v>
+      </c>
+      <c r="E83" s="15">
+        <v>700</v>
+      </c>
+      <c r="F83" s="14">
+        <v>15</v>
+      </c>
+      <c r="G83" s="15">
+        <v>27</v>
+      </c>
+      <c r="H83" s="14">
+        <v>22</v>
+      </c>
+      <c r="I83" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J83" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K83" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="B84" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C84" s="15">
+        <v>98</v>
+      </c>
+      <c r="D84" s="14">
+        <v>2</v>
+      </c>
+      <c r="E84" s="15">
+        <v>120</v>
+      </c>
+      <c r="F84" s="14">
+        <v>20</v>
+      </c>
+      <c r="G84" s="15">
+        <v>27</v>
+      </c>
+      <c r="H84" s="14">
+        <v>17</v>
+      </c>
+      <c r="I84" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J84" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K84" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B85" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C85" s="15">
+        <v>225</v>
+      </c>
+      <c r="D85" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E85" s="15">
+        <v>300</v>
+      </c>
+      <c r="F85" s="14">
+        <v>30</v>
+      </c>
+      <c r="G85" s="15">
+        <v>27</v>
+      </c>
+      <c r="H85" s="14">
+        <v>23</v>
+      </c>
+      <c r="I85" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J85" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K85" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B86" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C86" s="15">
+        <v>95</v>
+      </c>
+      <c r="D86" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E86" s="15">
+        <v>250</v>
+      </c>
+      <c r="F86" s="14">
+        <v>30</v>
+      </c>
+      <c r="G86" s="15">
+        <v>27</v>
+      </c>
+      <c r="H86" s="14">
+        <v>23</v>
+      </c>
+      <c r="I86" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J86" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K86" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="B87" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C87" s="15">
+        <v>98</v>
+      </c>
+      <c r="D87" s="14">
+        <v>2</v>
+      </c>
+      <c r="E87" s="15">
+        <v>120</v>
+      </c>
+      <c r="F87" s="14">
+        <v>20</v>
+      </c>
+      <c r="G87" s="15">
+        <v>27</v>
+      </c>
+      <c r="H87" s="14">
+        <v>17</v>
+      </c>
+      <c r="I87" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J87" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K87" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B88" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C88" s="15">
+        <v>95</v>
+      </c>
+      <c r="D88" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E88" s="15">
+        <v>250</v>
+      </c>
+      <c r="F88" s="14">
+        <v>30</v>
+      </c>
+      <c r="G88" s="15">
+        <v>27</v>
+      </c>
+      <c r="H88" s="14">
+        <v>23</v>
+      </c>
+      <c r="I88" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J88" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K88" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="B89" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C89" s="15">
+        <v>400</v>
+      </c>
+      <c r="D89" s="14">
+        <v>3</v>
+      </c>
+      <c r="E89" s="15">
+        <v>700</v>
+      </c>
+      <c r="F89" s="14">
+        <v>15</v>
+      </c>
+      <c r="G89" s="15">
+        <v>27</v>
+      </c>
+      <c r="H89" s="14">
+        <v>22</v>
+      </c>
+      <c r="I89" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J89" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K89" s="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="B90" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C90" s="15">
+        <v>225</v>
+      </c>
+      <c r="D90" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E90" s="15">
+        <v>300</v>
+      </c>
+      <c r="F90" s="14">
+        <v>30</v>
+      </c>
+      <c r="G90" s="15">
+        <v>27</v>
+      </c>
+      <c r="H90" s="14">
+        <v>23</v>
+      </c>
+      <c r="I90" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J90" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K90" s="19">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A87:K90">
+    <sortCondition ref="K90"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14528,8 +15477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14549,7 +15498,7 @@
       <c r="A2">
         <v>149.9</v>
       </c>
-      <c r="B2" s="103">
+      <c r="B2" s="87">
         <v>4.2027777777777775</v>
       </c>
       <c r="C2" t="s">
@@ -14569,7 +15518,7 @@
       <c r="A3">
         <v>149.80000000000001</v>
       </c>
-      <c r="B3" s="103">
+      <c r="B3" s="87">
         <v>2.1027777777777779</v>
       </c>
       <c r="C3" t="s">
@@ -14583,7 +15532,7 @@
       <c r="A4">
         <v>149.69999999999999</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="87">
         <v>1.4020833333333333</v>
       </c>
       <c r="C4" t="s">
@@ -14597,7 +15546,7 @@
       <c r="A5">
         <v>149.6</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="87">
         <v>1.0527777777777778</v>
       </c>
       <c r="C5" t="s">
@@ -14784,8 +15733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14800,49 +15749,49 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -14854,7 +15803,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -15968,49 +16917,49 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -16022,7 +16971,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -17524,9 +18473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F32" sqref="F32"/>
+      <selection pane="topRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17544,70 +18493,70 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
-      <c r="P3" s="96" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="P3" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="87" t="s">
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="91" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -17617,42 +18566,42 @@
       <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="92" t="s">
+      <c r="Q4" s="98"/>
+      <c r="R4" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93" t="s">
+      <c r="S4" s="96"/>
+      <c r="T4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="94"/>
-      <c r="V4" s="92" t="s">
+      <c r="U4" s="98"/>
+      <c r="V4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93" t="s">
+      <c r="W4" s="96"/>
+      <c r="X4" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="92" t="s">
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="93" t="s">
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92" t="s">
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="88"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="92"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -17740,7 +18689,7 @@
       <c r="AE5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="89"/>
+      <c r="AF5" s="93"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="12">
@@ -19197,14 +20146,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
@@ -19215,6 +20156,14 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19225,9 +20174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H30" sqref="H30"/>
+      <selection pane="topRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19242,70 +20191,70 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
-      <c r="P3" s="96" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="P3" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="87" t="s">
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="91" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -19315,42 +20264,42 @@
       <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="92" t="s">
+      <c r="Q4" s="98"/>
+      <c r="R4" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93" t="s">
+      <c r="S4" s="96"/>
+      <c r="T4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="94"/>
-      <c r="V4" s="92" t="s">
+      <c r="U4" s="98"/>
+      <c r="V4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93" t="s">
+      <c r="W4" s="96"/>
+      <c r="X4" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="92" t="s">
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="93" t="s">
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92" t="s">
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="88"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="92"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -19438,7 +20387,7 @@
       <c r="AE5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="89"/>
+      <c r="AF5" s="93"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="12">
@@ -20598,40 +21547,40 @@
         <v>7.1</v>
       </c>
       <c r="C24" s="14">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="D24" s="15">
         <v>30</v>
       </c>
       <c r="E24" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="15">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G24" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H24" s="15">
         <v>27</v>
       </c>
       <c r="I24" s="14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J24" s="16">
         <v>0.7</v>
       </c>
       <c r="K24" s="17">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="L24" s="18">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="M24" s="19">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N24" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P24" s="30"/>
       <c r="Q24" s="31"/>
@@ -20958,14 +21907,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="P3:AE3"/>
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="P4:Q4"/>
@@ -20976,6 +21917,14 @@
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20986,8 +21935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21002,70 +21951,70 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
-      <c r="P3" s="96" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="P3" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="87" t="s">
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="91" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -21075,42 +22024,42 @@
       <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="92" t="s">
+      <c r="Q4" s="98"/>
+      <c r="R4" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93" t="s">
+      <c r="S4" s="96"/>
+      <c r="T4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="94"/>
-      <c r="V4" s="92" t="s">
+      <c r="U4" s="98"/>
+      <c r="V4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93" t="s">
+      <c r="W4" s="96"/>
+      <c r="X4" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="92" t="s">
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="93" t="s">
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92" t="s">
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="88"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="92"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -21198,7 +22147,7 @@
       <c r="AE5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="89"/>
+      <c r="AF5" s="93"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="12">
@@ -22610,6 +23559,7 @@
     <mergeCell ref="V4:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22633,49 +23583,49 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -22687,7 +23637,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -23804,8 +24754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M29" sqref="M25:M29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -23820,70 +24770,70 @@
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="85" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
-      <c r="P3" s="96" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="P3" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="87" t="s">
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="91" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
@@ -23893,42 +24843,42 @@
       <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="92" t="s">
+      <c r="Q4" s="98"/>
+      <c r="R4" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93" t="s">
+      <c r="S4" s="96"/>
+      <c r="T4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="94"/>
-      <c r="V4" s="92" t="s">
+      <c r="U4" s="98"/>
+      <c r="V4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="93" t="s">
+      <c r="W4" s="96"/>
+      <c r="X4" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="92" t="s">
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="93" t="s">
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92" t="s">
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="88"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="92"/>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A5" s="89"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -24016,7 +24966,7 @@
       <c r="AE5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="89"/>
+      <c r="AF5" s="93"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="12">
